--- a/main/results.xlsx
+++ b/main/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="102">
   <si>
     <t>HRAF Document ID</t>
   </si>
@@ -52,342 +52,275 @@
     <t>Citation</t>
   </si>
   <si>
-    <t>fq12-017</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>FQ12</t>
-  </si>
-  <si>
-    <t>Araki, Minako, 1963-.</t>
-  </si>
-  <si>
-    <t>Outside development interventions: people's daily actions among the
-Plateau Tonga of Zambia</t>
-  </si>
-  <si>
-    <t>Acculturation and culture contact  (177), Domesticated animals  (231), Tillage  (241), Settlement patterns  (361), Real property  (423), Social relationships and groups  (571), Family relationships  (593), Polygamy  (595), Kin relationships  (602), Lineages  (613)</t>
-  </si>
-  <si>
-    <t>1993-1994</t>
-  </si>
-  <si>
-    <t>http://ehrafworldcultures.yale.edu/document?id=fq12-017</t>
-  </si>
-  <si>
-    <t>Araki, Minako. 2001. “Outside Development Interventions: People’S Daily Actions Among The Plateau Tonga Of Zambia.” African Study Monographs 22 (4). Kyoto: 195–208. http://ehrafworldcultures.yale.edu/document?id=fq12-017.</t>
-  </si>
-  <si>
-    <t>fq12-013</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>This story is not what we typically expect to hear about life in rural Africa, where people supposedly care for and respect the elderly. When North Americans and Europeans think of family in places such as Africa—places where people “live close to their environment” and where life is more “simple”—we invoke notions of altruistic social groups whose members live by a higher moral code than we do in the West. In the West we often have a sense that individualism rules, and we like to believe that a place exists where moral life is still strong—where elders are respected and                  cared for—because we see those modes of behavior slipping out of our own lives, in the same way that homemade pies, porch swings, and the corner soda fountain have all slipped away.</t>
-  </si>
-  <si>
-    <t>Cliggett, Lisa, 1965-.</t>
-  </si>
-  <si>
-    <t>Grains from grass: aging, gender, and famine in rural Africa</t>
-  </si>
-  <si>
-    <t>Internal migration  (166), Gratification and control of hunger  (261), Gift giving  (431), Accumulation of wealth  (556), Gender status  (562), Etiquette  (576), Household  (592), Polygamy  (595), Lineages  (613), Disasters  (731), Sorcery  (754), Status and treatment of the aged  (888)</t>
-  </si>
-  <si>
-    <t>1950-2004</t>
-  </si>
-  <si>
-    <t>1994-1995</t>
-  </si>
-  <si>
-    <t>http://ehrafworldcultures.yale.edu/document?id=fq12-013</t>
-  </si>
-  <si>
-    <t>Cliggett, Lisa. 2005. “Grains From Grass: Aging, Gender, And Famine In Rural Africa.” Ithaca, N.Y.: Cornell University Press. http://ehrafworldcultures.yale.edu/document?id=fq12-013.</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>But this Shangri-la may exist only in our dreams. In Africa, a place imagined to be so many things that it is not, the systems of cooperation, altruism, and assistance are as varied as the more than 1,800 languages spoken on the African continent (Heine and Nurse 2000). Sometimes support systems exist for reasons other than clear-cut moral obligations or a sense of what is “right.” On a continent intertwined with a global economy that has treated it, and continues to treat it, as a region of global sacrifice, people fashion a livelihood by using far more complicated means than simple altruistic support. Indeed, most people living in Africa, including the elderly, have developed highly subtle and creative ways of making a living. These creative livelihoods, in fact, often depend heavily on webs of social networks, but the glue that holds these networks together is not moral duty or altruistic sentiments; the glue is necessity in the face of limited choices.</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Part of the clarity of purpose I had since my arrival in Zambia a few weeks before, and my subsequent determination to get to the valley quickly, came as a result of serendipitous circumstances a month before my departure from the United States. My research plans for Zambia had been in process for three years prior to my departure in the Northern Hemisphere                     spring of 1994. But a month before leaving, Thayer Scudder—one of the two anthropologists who had worked in the Gwembe Valley since 1956, had convinced me that I should shift my field site from Zambia's Eastern Province to the Gwembe Valley in Southern Province (see fig. 2.1). Part of the attraction in shifting to the Gwembe was simply the “infrastructure” for research.</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Elizabeth Colson, the other, and first, anthropologist working in the region since before the 1950s, and Ted Scudder had been continuously working in four Gwembe villages since their first study on the consequences of resettlement of the Gwembe Tonga people caused by the building of Kariba Dam on the Zambezi River.  When Scudder encouraged me to consider working in the Gwembe, he offered me the choice to work in any of the villages where the project had been based, and he also offered me access to the village census material that he and Colson continually update. (See fig. 2.2 for a map of pre- and post-resettlement villages where Colson and Scudder have conducted research since 1956.) Thus, when I decided to shift my field site south, I suddenly found myself with specific villages in which to work, names of people with whom Colson and Scudder, and other researchers on the project, had worked, and most importantly, a foundation of almost fifty years of knowledge from which I could begin my own research. After discussing the various characteristics of the different villages with Scudder and Colson, I decided to make my home base in the Gwembe Central village of Sinafala, about five miles south of Chipepo along the lakeshore. Sinafala was considered one of the “better-off” villages because of its proximity to the lake, where people could farm                                         the fertile shore land during the dry season and also benefit from the fishing opportunities.</t>
-  </si>
-  <si>
-    <t>fq12-016</t>
+    <t>ms22-008</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Teda</t>
+  </si>
+  <si>
+    <t>MS22</t>
+  </si>
+  <si>
+    <t>The nomad has no other monuments but graves, obliterated in contries of sand, but eternal in mountainous countries where stone has served to cover the corpse.</t>
+  </si>
+  <si>
+    <t>Chapelle, Jean.</t>
+  </si>
+  <si>
+    <t>Black nomads of the Sahara:</t>
+  </si>
+  <si>
+    <t>Cultural identity and pride  (186), Ethos  (181), Internal migration  (166), External migration  (167), Settlement patterns  (361), Water supply  (312), (23), Tribe and nation  (619), Clans  (614), Traditional history  (173), Normal garb  (291), History  (175), External relations  (648), Annual cycle  (221), Offenses against life  (682), Status, role, and prestige  (554), Culture summary  (105), Location  (131)</t>
+  </si>
+  <si>
+    <t>1930-1937</t>
+  </si>
+  <si>
+    <t>ca. 1930-1955</t>
+  </si>
+  <si>
+    <t>http://ehrafworldcultures.yale.edu/document?id=ms22-008</t>
+  </si>
+  <si>
+    <t>Chapelle, Jean, and Frieda Schütze. 1957. “Black Nomads Of The Sahara.” Paris: Librairie Plon. http://ehrafworldcultures.yale.edu/document?id=ms22-008.</t>
+  </si>
+  <si>
+    <t>However, at Ounianga Serir, a palm grove situated northwest of Ennedi, the dead were even recently interred by being                       placed in a crouched position on a flat rock, with stones heaped on the corpse.   The Toubou graves of the oasis of Kufra contain dead placed in this seated position. Covered, not with stones, but with mounds of salt, they have been preserved in their shrouds of skin or of mats. Rohlfs described them thus.</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>The two common baskets made by the Tonga are the  intumba and the  cisuo. The former is a small basket used as a food dish; the latter is large and used for carrying, for winnowing, and for various other purposes. The technique is the same for both, save that the  intumba is more finely twined. A number of narrow strips of split reed ( lutete) are twilled to form a square bottom, and then the ends turned upright and caught by a threadlike strand of split vine ( lutende). The strands extending from the base form the warps, and on these the basket maker twines the sides with two wefts of moistened vine. The sides expand until the basket assumes                                                 a circular shape, and the top is finished off by inserting a circular withe. Some slight attempt at a pattern is often made by inserting a weft, dyed black, but this is never elaborate. When the  cisuo is finished, it is given a thin coating of manure well rubbed into the interestices to make it less permeable and to keep meal from sifting through.</t>
-  </si>
-  <si>
-    <t>Colson, Elizabeth,
-1917-.</t>
-  </si>
-  <si>
-    <t>Life among the cattle-owning plateau Tonga: the material culture of a
-Northern Rhodesia native tribe</t>
-  </si>
-  <si>
-    <t>Tillage  (241), Cereal agriculture  (243), Preservation and storage of food  (251), Mats and basketry  (285), Woodworking  (322), Ceramic technology  (323), Smiths and their crafts  (326), Dwellings  (342), Settlement patterns  (361), Division of labor by gender  (462)</t>
-  </si>
-  <si>
-    <t>1946-1948</t>
-  </si>
-  <si>
-    <t>http://ehrafworldcultures.yale.edu/document?id=fq12-016</t>
-  </si>
-  <si>
-    <t>Colson, Elizabeth, and University of Zambia. Institute for Social Research. 1949. “Life Among The Cattle-Owning Plateau Tonga: The Material Culture Of A Northern Rhodesia Native Tribe.” Occasional Papers Of The Rhodes-Livingstone Museum. Livingstone, Northern Rhodesia: Rhodes-Livingstone Museum. http://ehrafworldcultures.yale.edu/document?id=fq12-016.</t>
-  </si>
-  <si>
-    <t>fq12-015</t>
-  </si>
-  <si>
-    <t>[379-B]</t>
-  </si>
-  <si>
-    <t>Colson, Elizabeth,
-         1917-.</t>
-  </si>
-  <si>
-    <t>Marriage &amp; the family among Plateau Tonga: of Northern
-         Rhodesia</t>
-  </si>
-  <si>
-    <t>(58), (59), (60), Informal in-group justice  (627), Sex and marital offenses  (684), Trial procedure  (695)</t>
-  </si>
-  <si>
-    <t>1945-1951</t>
-  </si>
-  <si>
-    <t>1946-1947, 1948, 1950</t>
-  </si>
-  <si>
-    <t>http://ehrafworldcultures.yale.edu/document?id=fq12-015</t>
-  </si>
-  <si>
-    <t>Colson, Elizabeth, and University of Zambia. Institute for Social Research. 1958. “Marriage &amp; The Family Among Plateau Tonga Of Northern Rhodesia.” Manchester: Manchester University Press. http://ehrafworldcultures.yale.edu/document?id=fq12-015.</t>
-  </si>
-  <si>
-    <t>fq12-001</t>
-  </si>
-  <si>
-    <t>[End map]</t>
-  </si>
-  <si>
-    <t>Social organization of the Gwembe Tonga</t>
-  </si>
-  <si>
-    <t>Domesticated animals  (231), Real property  (423), (58), (59), Lineages  (613), Community structure  (621), Cult of the dead  (769)</t>
-  </si>
-  <si>
-    <t>1850-1957</t>
-  </si>
-  <si>
-    <t>1949, 1956-1957</t>
-  </si>
-  <si>
-    <t>http://ehrafworldcultures.yale.edu/document?id=fq12-001</t>
-  </si>
-  <si>
-    <t>Colson, Elizabeth, and University of Zambia. Institute for Social Research. 1967. “Social Organization Of The Gwembe Tonga.” Human Problems Of Kariba. Manchester: Manchester University Press. http://ehrafworldcultures.yale.edu/document?id=fq12-001.</t>
-  </si>
-  <si>
-    <t>fq12-004</t>
-  </si>
-  <si>
-    <t>[p. ii]</t>
-  </si>
-  <si>
-    <t>The social consequences of resettlement: the impact of the Kariba
-resettlement upon the Gwembe Tonga</t>
-  </si>
-  <si>
-    <t>Internal migration  (166), Sociocultural trends  (178), Age stratification  (561), (58), Family relationships  (593), Lineages  (613), Community structure  (621), Community heads  (622), Ethnosociology  (829)</t>
-  </si>
-  <si>
-    <t>1950-1970</t>
-  </si>
-  <si>
-    <t>1949, 1956-1957, 1960, 1962, 1965</t>
-  </si>
-  <si>
-    <t>http://ehrafworldcultures.yale.edu/document?id=fq12-004</t>
-  </si>
-  <si>
-    <t>Colson, Elizabeth, and University of Zambia. Institute for Social Research. 1971. “Social Consequences Of Resettlement: The Impact Of The Kariba Resettlement Upon The Gwembe Tonga.” Kariba Studies. Manchester: Manchester University Press. http://ehrafworldcultures.yale.edu/document?id=fq12-004.</t>
-  </si>
-  <si>
-    <t>fq12-003</t>
-  </si>
-  <si>
-    <t>The  londe vegetation on the chestnut sands consists             mainly of dense thickets of                 Commiphora, together with  Pterocarpus stevensonii, Combretum spp.,             especially  C. eleagnoides,             and scattered larger trees of                 Triplochiton zambesiacus. On shallow gravelly soils this passes into open             vegetation of  Kirkia acuminata,                Commiphora spp., especially  C. fischeri, and  Combretum epiculatum, often mixed with                 mopane trees. On                 mopane soils,                 Colophospermum mopane             is dominant to the virtual exclusion of all but a few small spiny shrubs and vines. The             rich alluvial soils carry                 Acacia, especially  A.                heteracantha and, on the lower shelves,  A. albida (Winterthorn). Associated with the             former are thickets of                 Grewia and scandent                 Combretum spp. and, with the latter,  Trichilia roka and sometimes               Lonchocarpus. As will be             shown later, the surrounding vegetation is of considerable importance to the human             economy. Not only does it provide the raw material to satisfy the everyday needs of the                Tonga                             but also, in time of want, it provides             substitute foods that help to eke out the scanty supplies of grain.</t>
-  </si>
-  <si>
-    <t>Reynolds,
-         Barrie.</t>
-  </si>
-  <si>
-    <t>The material culture of the peoples of the Gwembe
-         Valley</t>
-  </si>
-  <si>
-    <t>(22), Tillage  (241), Normal garb  (291), Ornament  (301), (32), Dwellings  (342), Outbuildings  (343), Furniture  (352), Building interiors and arrangement  (353), General tools  (412), Boats  (501)</t>
-  </si>
-  <si>
-    <t>1956-1957</t>
-  </si>
-  <si>
-    <t>http://ehrafworldcultures.yale.edu/document?id=fq12-003</t>
-  </si>
-  <si>
-    <t>Reynolds, Barrie, and Kariba studies (National Museums of Zambia). 1968. “Material Culture Of The Peoples Of The Gwembe Valley.” Kariba Studies. New York: Praeger. http://ehrafworldcultures.yale.edu/document?id=fq12-003.</t>
-  </si>
-  <si>
-    <t>[End Map, following p. 262]</t>
-  </si>
-  <si>
-    <t>fq12-009</t>
-  </si>
-  <si>
-    <t>[p. 210-B]</t>
-  </si>
-  <si>
-    <t>In large-scale man-made lakes extensive bush clearing, though expensive, is desirable for a number of reasons relating to fisheries, the formation of aquatic weed mats, and health and aesthetic considerations. At Kariba nearly one-quarter of a million acres was cleared at a cost of approximately £10 per acre. Of these, 126,000 acres were cleared along the north bank, with the main pitches concentrated on either side of Sinazongwe harbor. As Fig. 13-1 shows, most of the lake basin was uncleared. Furthermore, within fishing pitches, clearing extended from approximately the 1590-foot contour (close to the upper margin of the drawdown area) to 1530 feet, so that the deeper areas remained uncleared. These uncleared areas are very difficult to fish, especially when the crowns of the trees project beyond the surface and hence form                                   anchors for mats of  Salvinia auriculata and other sudd components. While it is to be hoped that the Central Fisheries Research Institute will be able to develop better techniques for use in these areas, underwater snags will continue to shred nets which the fishermen of today cannot afford to lose. On the other hand, many fishermen must fish the uncleared areas because the principal fish populations are now congregated there, no doubt because of a better food supply and a greater degree of protection.</t>
-  </si>
-  <si>
-    <t>Scudder, Thayer.</t>
-  </si>
-  <si>
-    <t>Ecological bottlenecks and the development of the Kariba Lake
-Basin</t>
-  </si>
-  <si>
-    <t>(13), Fauna  (136), Fishing  (226), Domesticated animals  (231), Applied animal science  (232), Tillage  (241), Agricultural science  (242), Land use  (311), Water supply  (312), Research and development  (654)</t>
-  </si>
-  <si>
-    <t>1948-1967</t>
-  </si>
-  <si>
-    <t>1956-1957, 1962-1963, 1965, 1967</t>
-  </si>
-  <si>
-    <t>http://ehrafworldcultures.yale.edu/document?id=fq12-009</t>
-  </si>
-  <si>
-    <t>Scudder, Thayer. 1972. “Ecological Bottlenecks And The Development Of The Kariba Lake Basin.” Careless Technology: Ecology And International Development, Edited By M. Taghi Farvar And John P. Milton. Garden City, N. Y.: Natural History Press. http://ehrafworldcultures.yale.edu/document?id=fq12-009.</t>
-  </si>
-  <si>
-    <t>[p. 212-B]</t>
-  </si>
-  <si>
-    <t>The distribution of  G. morsitans in the Northern Rhodesian portion of the Middle Zambezi Valley was mapped between 1949 and 1955 as part of a territory-wide survey of  Glossina species. Two main concentrations, along with two smaller foci, were found, which are shown in Fig. 13-2, a map upon which the future lake shore margin                                                   has been superimposed. Within these pockets the distribution of the fly often formed a dentritic pattern, the preferred fly habitat being associated with changes (ecotones) between vegetation zones, especially in river and stream valleys, but also in connection with thickets and  dambo (hardpan) margins, and the foot of the escarpment and the base of Karroo and granitic formations throughout the valley.</t>
-  </si>
-  <si>
-    <t>fq12-005</t>
-  </si>
-  <si>
-    <t>Lee's long-term study of the Bushmen, on                which most of the material in this section is based, initially concentrated on a                population of 466 people whose gathering and hunting activities are focused on a                small water hole, called Dobe, on the Botswana-South West Africa frontier.  In comparison with the Central Africa Plateau and its associated river                systems, the habitat of the Dobe Bushmen is distinctly                 unfavourable. The main limiting factor is                water, with average annual rainfall less than half of that of the lower rainfall                areas of Zambia and Rhodesia. The variety of both flora and fauna is also less, as is                the total quantity of wild foods which can be collected on an annual basis.</t>
-  </si>
-  <si>
-    <t>Scudder,
-         Thayer.</t>
-  </si>
-  <si>
-    <t>Gathering among African woodland savannah cultivators: a case
-         study: the Gwembe Tonga</t>
-  </si>
-  <si>
-    <t>Topography and geology  (133), Mortality  (165), Comparative evidence  (171), Collecting  (222), Tillage  (241), Cereal agriculture  (243), Food preparation  (252), Gratification and control of hunger  (261), Diet  (262), Ethnobotany  (824)</t>
-  </si>
-  <si>
-    <t>1925-1970</t>
-  </si>
-  <si>
-    <t>1956-1970</t>
-  </si>
-  <si>
-    <t>http://ehrafworldcultures.yale.edu/document?id=fq12-005</t>
-  </si>
-  <si>
-    <t>Scudder, Thayer, and University of Zambia. Institute for African Studies. 1971. “Gathering Among African Woodland Savannah Cultivators: A Case Study:  The Gwembe Tonga.” Zambian Papers. Manchester: Manchester University Press. http://ehrafworldcultures.yale.edu/document?id=fq12-005.</t>
-  </si>
-  <si>
-    <t>And                yet, except for water during the latter portion of the dry season, the environment is                none the less a favourable one for the Bushman way of life. This is a crucially                important point which we shall be stressing again and again. It also applies to the                Eastern Hadza of North Central Tanzania, who were first studied by Woodburn between                1958 and 1960. Like the Bushmen, they live in semi-arid woodland                                 savannah which is so unfavourable to                subsistence agriculture  as to exclude its settlement by African cultivators. Yet for a small                population of gatherers and hunters local food resources are more than ample—water                again being the critical factor during the height of the dry season.</t>
-  </si>
-  <si>
-    <t>fq12-002</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>In the River regions, 30–40 per                cent of the alluvial gardens owned by the women in our census were received from                husbands as opposed to over 60 per cent in MPWE. Indirectly this appears to be a                result of smaller alluvial deposits in the MPWE area. Because the land cannot support                large adjacent villages within the neighbourhood, many men are forced to seek wives                from other neighbourhoods. Too far from home to cultivate their own holdings, these women are dependent on their husbands for                land. Although we do not know if this difference in land tenure has had any effect on                the status of women in MPWE or other small Upland Valley neighbourhoods, resettlement                will make Middle River women                                   more dependent on their                husbands for land. This is because all gardens in the resettlement areas must be bush                cleared so that men, as the pioneer owners, will have complete control over land                allotment.</t>
-  </si>
-  <si>
-    <t>The ecology of the Gwembe Tonga</t>
-  </si>
-  <si>
-    <t>(22), (23), (24)</t>
-  </si>
-  <si>
-    <t>1956-1957 (11 mos.)</t>
-  </si>
-  <si>
-    <t>http://ehrafworldcultures.yale.edu/document?id=fq12-002</t>
-  </si>
-  <si>
-    <t>Scudder, Thayer, and University of Zambia. Institute for Social Research. 1962. “Ecology Of The Gwembe Tonga.” Kariba Studies. Manchester: Manchester University Press. http://ehrafworldcultures.yale.edu/document?id=fq12-002.</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>Regardless                of whether or not they recognize the relationship of ticks to heart-water, the Valley                Tonga do grasp the importance of the tsetse fly ( luuka).  Indeed, most Middle River informants attributed the late 1956 and early 1957                deaths to the fly, which is the alternate host and principal carrier of animal                   trypanosomiasis.                 Infecting both domestic and wild                   animals,  this disease is actually caused by a number of trypanosomes rather than by                one species. Of these, only certain species are able to infect seriously a particular                species of livestock. To complicate matters further, these                                   different trypanosomes vary in their                ability to infect tsetse, with the result that some species are carried more                frequently than others. Hence the number of tsetse carrying bovine trypanosomiasis at                any one time is greater than the number carrying the trypanosome which kills donkeys.                Still another significant factor in the transmission of the disease relates to the                feeding habits of the tsetse itself. Because the fly prefers cattle to donkeys, the                latter have another advantage over bovines within or near a fly belt. In Chilonde,                for example, seven donkeys but no cattle have managed to survive for four years in                spite of the fact that the village is located on the margin of the isolated MOYO                tsetse pocket (Fig. 19).</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>Tsetse also                prefer cattle (and presumably certain species of game) to sheep, and the latter to                goats. Whereas small stock are not infrequently found in tsetse-infested                neighbourhoods where cattle have died out, goats alone have survived in both Chilonde                and Siakalimamatondo. Other areas in both Gwembe and Sebungwe Districts are so                heavily infested with tsetse that no stock have managed to survive.</t>
-  </si>
-  <si>
-    <t>While study of                Fig. 19 should illustrate why cattle are found today only in certain portions of the                Gwembe, a map of maximum tsetse distribution rarely coincides with the area infected                with animal trypanosomiasis. This is because individual tsetse not infrequently                wander outside their area of residence as a result of their habit of resting on free                roaming game and especially on human travellers and vehicles. Although it is doubtful                that the tsetse involved can extend the limits of a fly belt, unless of course the                fly are expanding outward in large numbers along a wide front, they can infect cattle                and other domestic animals outside of their resident foci. This is especially true                during the early portion of the rains since recently emerged tsetse are particularly                susceptible to trypanosome infection at that time (communication from Mr. J. Ford).                As a result a whole herd many miles beyond a tsetse belt can be stricken, since once                one beast is infected the disease can be passed on by  Haemotopota and other biting flies through a                process of ‘mechanical or non-cyclical transmission’ (communication from Mr. W. S.                   Steel).  If the deaths in CHEZIA                                 were actually caused by                trypanosomiasis, presumably the disease was spread by this process, having been                introduced in the first place either by wandering tsetse or by infected cattle                brought in from another area. It is probably because of the continual risk of                wandering fly and of mechanical transmission that cattle are not found between Moyo                and Siasuntwe or in other areas which are adjacent to pockets of resident fly.</t>
-  </si>
-  <si>
-    <t>[p. 274-A]</t>
-  </si>
-  <si>
-    <t>[p. 274-B]</t>
-  </si>
-  <si>
-    <t>[p. 274-C]</t>
-  </si>
-  <si>
-    <t>[p. 274-D]</t>
-  </si>
-  <si>
-    <t>[p. 274-F]</t>
+    <t>Lieutenant Petragnani, prisoner of the Senoussis, stayed in the oasis of Kufra in 1918, and visited the palm grove of  Taïzerbo which was still occupied by some Toubous. He has given a strange account of the burial customs of the past:</t>
+  </si>
+  <si>
+    <t>Be that as it may, this way of interring the dead, which is that of protohistoric Egypt, seems to have been very widespread, not only in the Sahara, but in the African East and West, and Clapperton mentions several tribes of Nigeria that still practiced it in the 19th century in the vicinity of the Islamized zone.                          One might imagine that, where it is no longer practiced, it disappeared only under the influence of Islam.</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>At Kufra, in the various oases of this group, which extend more than 200 kilometers from Taïzerbo to Bou-Zeima, Ribiana and Kebabo, they have left ruins and numerous burial places where one finds skeletons that are “seated” and, sometimes, it seems, mummified. The Toubous of Kufra were not yet Islamized at the end of the XVIIIth century (Kufar means “pagan” in Arabic).</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>Even though, as far as life is concerned, the Toubou follow only vaguely the rules of Muslim law, this is not the same for death.</t>
+  </si>
+  <si>
+    <t>The deceased belong to God and to Islam, and if those who bury him sometimes deviate from the rules it is out of ignorance. The most pious, the ones most acquainted with the religion, take possession of the corpse. They bathe it, clothe it in a loincloth, trousers, shirt, a cap and a turban. They sew it into a piece of white cloth. If it is a woman, old women lay it out, clothe the corpse in feminine garments and sew it into the shroud. Children under seven years are given only a loincloth and a shroud.</t>
+  </si>
+  <si>
+    <t>Burial takes place the same day, and there is therefore no  wake. The corpse is placed on a stretcher and carried to the burial site. The marabout, if there is one, recites the fatiha and the tekbir. The corpse is placed in the pit, the face turned in the direction of Mecca. A mat keeps it from contact with the ground and the pit is filled up. Thorny branches cover the grave to keep off wild animals. The stretcher is left on the spot. Upon return /from the grave/ a gift is given to the marabout who said the prayer.</t>
+  </si>
+  <si>
+    <t>Before interment, an animal is sacrificed, millet porridge and fritters are made. Visitors are invited to share this meal, part of which is given the children. Ten to 40 days later, depending on the region, a very large sadaga of sheep and goats takes place, and tibi is prepared. All those who have made condolence visits are invited. The nearest relatives of the deceased eat little or not at all. Part of the tibi and the sacrificial animal is carried to the grave. The fat is burned “for God”. One year later, these sacrifices are renewed, in the course of which up to 40 goats are sometimes killed. In the years that follow, the graves are no longer visited. Only                       some old women return to weep on the graves of their husbands. The memory of the dead is perpetuated in other rites, practiced especially in Tibesti.</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>* * * * *</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>The small livestock involved in the inheritance is used, in part, for sacrifices, and for the meal arranged for those attending the funeral and especially during the big sadaga which took place one year after the death, to which the largest possible number of guests was invited. It happens that several dozen goats are thus killed, and this extravagance contrasts with the parsimoniousness which the Toubou habitually exhibit in butchering stock, that causes them sometimes to go several months without eating meat. It seems that here too this livestock is always considered as belonging to the deceased, and not as being the property of such and such an heir, and it seems normal to sacrifice it. The relatives who live in the immediate vicinity of the deceased, moreover, do not deny themselves in doing away with a good share of these animals before the arrival of co-heirs, even apart from the ritual meals. It does not seem that they are very much reproached, since this seems natural.</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>The one presumed to be guilty can also be called upon to swear either by the Koran or by his amulets or by the traditional oath of his clan. The perjurer, according to popular belief, dies within a year. It is always humiliating and dangerous to submit to an oath.</t>
+  </si>
+  <si>
+    <t>ms22-001</t>
+  </si>
+  <si>
+    <t>[p. 19-A]</t>
+  </si>
+  <si>
+    <t>Broken pottery is much more abundant than stone implements. Extensive accumulations of potsherds have been observed along the banks of the broad valleys draining the Tibesti massif, on the plains of Borku, on the northern Kanem border, and in the ancient drainage basins of the Chad series in Egei and Toro. This pottery generally resembles the ware made at present by Negroes on the southern borders of the region. Pottery bearing impressions of woven dom-palm leaf — probably moulded in baskets — is very common here, suggesting an affiliation with Somaliland and the western Sudan. In view of the fact that the modern Teda do not make pottery, and possess only such as is made by their Negro slaves, this early abundance may indicate that their forefathers, after migrating from the south, relinquished ceramics gradually as they adopted the use of hide containers and a more nomadic life. Ruins of small stone huts, better constructed than those of the modern Teda, have been found at many points in Tibesti, often associated with potsherd deposits. This, also, suggests that the former inhabitants were more sedentary than those of today. Requin reports that conical or cylindrical tombs of dry stone masonry, containing skeletons in contracted posture, are found at various places in Tibesti. The natives call them nazara, following the well known Arab habit of attributing prehistoric remains to the Christians (Nasara), and say that they belong to a light-skinned race who were not the ancestors of the Teda. In all probability they are Teda graves of the pre-Moslem period.                  Reference to similar burials will be found on page 49.</t>
+  </si>
+  <si>
+    <t>Cline, Walter Buchanan,
+1904-.</t>
+  </si>
+  <si>
+    <t>The Teda of Tibesti, Borku, and Kawar in the eastern Sahara:</t>
+  </si>
+  <si>
+    <t>Identification  (101), Location  (131), Water supply  (312), Ethnobotany  (824), Clans  (614), Traditional history  (173), Prehistory  (172), History  (175), External relations  (648), Production and supply  (433), Tillage  (241), Arboriculture  (245), Domesticated animals  (231), Pastoral activities  (233), Settlement patterns  (361), Flora  (137), Internal trade  (438), External trade  (439), Dwellings  (342), Normal garb  (291), Personal grooming  (302)</t>
+  </si>
+  <si>
+    <t>1942-1950</t>
+  </si>
+  <si>
+    <t>1942</t>
+  </si>
+  <si>
+    <t>http://ehrafworldcultures.yale.edu/document?id=ms22-001</t>
+  </si>
+  <si>
+    <t>Cline, Walter Buchanan. 1950. “Teda Of Tibesti, Borku, And Kawar In The Eastern Sahara.” General Series In Anthropology. Menasha, Wisc.: George Banta Publishing Company. http://ehrafworldcultures.yale.edu/document?id=ms22-001.</t>
+  </si>
+  <si>
+    <t>[p. 48-A]</t>
+  </si>
+  <si>
+    <t>The Tibesti Teda prefer to have a religious clerk (Arabic fiqih, plural fuqaha) officiate at weddings and funerals, administer Moslem law, and write charms for them; but since none of their own men are qualified for this profession, and Tibesti attracts few foreign literati, they usually have to accept the services of a fellow countryman who has only a smattering of the Koran. In Kawar and Borku well qualified clerks are more available.</t>
+  </si>
+  <si>
+    <t>[p. 48-B]</t>
+  </si>
+  <si>
+    <t>Teda burial rites follow Moslem practice only in the most general way. They are simple but somewhat varied. The body is washed, wrapped in a shroud, covered with a mat, and carried to its resting place on a bier of palm branches. Noel says that in                                 Tibesti it is wrapped in a large roll of sheepskin. Some Teda bury it in a very shallow trench with the head to the south, piling over the grave a heap of thorn branches to protect it from jackals. In Tibesti the body is often laid on the surface of the ground and covered with a cairn or a small mound.</t>
+  </si>
+  <si>
+    <t>[p. 49-A]</t>
+  </si>
+  <si>
+    <t>Slaves dig the grave. According to Noel, the Tibesti Teda measure the corpse and the length of the grave with a stick which they bury in the mound over the grave. He says that the interment is performed under a temporary shelter; that the body is removed from the sheepskin robe and lowered into the grave so as to lie on its left side with the head to the south; and that a little wet earth is put on various parts of the body before the grave is filled in. The shelter is then taken down and the grave filled with three successive layers: the first of pebbles, the second of earth, the third of large stones. Noel mentions two upright gravestones, one at about two feet from the head of the grave, the other at the same distance from the foot. Other observers state that no gravestones are erected — a most unusual deficiency for Moslems — and that though the face is turned to the east, the body may lie in various directions. The palm-branch bier is left at the grave. Solitary graves are common, but most people are buried in small cemeteries at some distance from the camp or village. The Unia of Unianga place the corpse in a folded posture with knees against the chin, building over it a tomb of stones like the prehistoric “bazinas” of the Sahara. Teda may have followed a similar practice until recently.</t>
+  </si>
+  <si>
+    <t>The relatives of the dead conduct the                  funeral without chanting or formal demonstrations of grief. If a marabut is available he prays at the interment and concludes the ceremony by reciting the opening chapter of the Koran. Three days later they slaughter a goat or a sheep and eat it at the grave. For the following year the widow should not change her clothes or remarry. In Tibesti she is secluded for four months and ten days after the death, wearing only white, sleeping on the bare ground, and eating with a spoon rather than with her fingers. It is believed that if she saw a man during this period, she would die or go blind. Female neighbors bring her food, water, and firewood. At the end of her seclusion she puts on her normal costume and ornaments and may remarry. She often marries her husband's younger brother. There are no similar seclusion rites for a widower, though in some parts of Tibesti he lets his hair and beard grow for a few months. A year after the death the family returns to the grave for                                 the feast which terminates the mourning. In general the Teda show little interest in life after death.</t>
+  </si>
+  <si>
+    <t>[p. 49-B]</t>
+  </si>
+  <si>
+    <t>For weddings and funerals a goat is usually slaughtered within a circle of upright stones and the meat cooked on a stone hearth within this enclosure.</t>
+  </si>
+  <si>
+    <t>ms22-002</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>The deceased lies in the death tent covered only with a sheepskin. The women      may not enter. They squat around in a big circle and cry out from time to time. The deceased is      washed either by a priest, an old man or the father. The father's                   own son may not wash him, unless no other man is at hand. The corpse of a woman      is washed by the oldest woman present. A few scents are added to the water. The hands are tied      together and laid between the knees. Pressure on the stomach causes it to be emptied. Last of      all, the deceased is dressed in a bubu (Sudan — toba).</t>
+  </si>
+  <si>
+    <t>Kronenberg, Andreas.</t>
+  </si>
+  <si>
+    <t>The Teda of Tibesti:</t>
+  </si>
+  <si>
+    <t>Clans  (614), Identification  (101), Informants  (115), Reviews and critiques  (114), Mythology  (773), Sacred objects and places  (778), Cult of the dead  (769), Ethnic stratification  (563), Slavery  (567), Nuptials  (585), Family relationships  (593), Historical reconstruction  (174), Historical reconstruction  (174), Chief executive  (643), Pastoral activities  (233), Marriage  (580)</t>
+  </si>
+  <si>
+    <t>1850-1958</t>
+  </si>
+  <si>
+    <t>1953-1954</t>
+  </si>
+  <si>
+    <t>http://ehrafworldcultures.yale.edu/document?id=ms22-002</t>
+  </si>
+  <si>
+    <t>Kronenberg, Andreas, and Frieda Schütze. 1958. “Teda Of Tibesti.” Wiener Beiträge Zur Kulturgeschichte Und Linguistik. Horn-Wien, Austria: Verlag Ferdinand Berger. http://ehrafworldcultures.yale.edu/document?id=ms22-002.</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>The corpse must be buried as soon as possible. Immediately after his demise, a few men dig a      grave. If death occurs after sundown, interment is postponed until the next morning. The      kinfolk of the deceased do not sleep all night. However, if someone dies shortly before      sundown, the burial takes place in the dead of night.</t>
+  </si>
+  <si>
+    <t>Over the grave, which is a hole approximately the size of the corpse, a stone heap is      erected and above it a palm rod is fastened, bowshaped, with one end at the feet, the other at      the head.</t>
+  </si>
+  <si>
+    <t>Six poles are lashed together to make a bier (yorso yeda) on which is laid      a sheepskin and upon this the dead body. During these preparations the women sit quietly, but      as soon as they hear the bier being lifted, they utter piercing cries. The corpse is never      carried out through the exit of a hut or tent; instead, a hole is made in one wall and as soon      as the bier is outside, this hold is quickly closed up again. This is done so that the living      kin of the dead person, who occupy the tent, would not follow him, that is, would not die in      order to be with him.</t>
+  </si>
+  <si>
+    <t>The bier is always borne by an even number of men who softly hum bismillah      as they proceed. Two women carrying goat bags filled with water follow the      procession at a slight distance. Otherwise, no women take part in a burial, “for the      women lament and God does not like that.”</t>
+  </si>
+  <si>
+    <t>The bier with the corpse is set down at the grave in front of which the mourners, standing,      repeat the fatiha without proskynese      /prayer formula?/; finally, the cords are loosened during which the corpse      is shaded with a cloth, for the sun must not see the corpse (p. 119), and it is carefully      lowered into the grave, the face turned toward the east, the head toward the south. Lastly, the      grave is covered with large stones, then with a layer of sand mixed with water, then with more      stones, and a large stone is often placed at the head and the feet—in the case of women      also over the abdomen.</t>
+  </si>
+  <si>
+    <t>The men wash their hands over the grave; the water remaining in the goat skins is poured in      a circle around the grave.</t>
+  </si>
+  <si>
+    <t>“Yuroso: grave—yurusoge: cemetery, which      is found far from the encampment, in the ‘caillou’ /?/.”</t>
+  </si>
+  <si>
+    <t>Noel   describes the burial as follows: “At the cemetery, the priest says a      prayer, then the slaves dig a hole oriented from north to south, 30 centimeters wide, 60      centimeters deep and the length of the corpse, measured with a stick which is thereafter       buried                 in the mound over the grave. When the hole is dug, the bier is carried beside      it. The attendants hold over the grave a cover under which all the following operations take      place. The body, freed of the sheepskin, is lowered into the hole, laid on its left side with      the head toward the south. A little wet earth is placed (to pack it?) at different points of      the body, then flat stones are put…on the hole. Once the opening is well closed, the      cover under which this took place is removed. They heap on pebbles, then earth that has been      sprinkled and more stones. The priest once more recites the ‘fatiha’ along with      the assistants, then everybody leaves. The sticks of the bier are laid on the grave.”       /Translated from French/</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>The sabayin are demons. Among them there are good and bad        ones, Christians and Moslems. They live like human beings, marry, and also come to Bardai to        get dates. There are sabayin who are married to human women: these are        women who,  on Fridays, go raving mad or become ill, for that is when their sabayin husbands come to them. The sabayin live mostly in        the valleys and at the foot of mountains, also chiefly in sandy areas.        They lay their babies in the sand, and it often happens that a human being will step on such        a sabayin baby, which results in illness and often death of this human        being. Often, the wanderer will see a sabayin that approaches him like a        giant, tall as a palm tree; when you stand in front of him he will quickly turn himself into        a rock or a palm tree. Requin   also mentions that “their belief in        devils, in malevolent spirits, is extremely vivid, and everybody knows that the solitary        wanderer, lost at night on the mountain, risks seeing a                       demoniacal spirit appear in the form of a mouflon or a sheep, which will kill        him or announce to him the death of a relative.” /transl. from Fr./        Children, especially, from the age of eight to about thirteen, have the gift of seeing the         sabayin. One can kill a sabayin with a gun shot or the        thrust of a lance, but the “murderer” must die if other sabayin learn of it.</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>is the seat of feelings. Immediately after the burial of a deceased        person, while his relatives are going home, the archangel Gabriel comes, takes the deceased's        heart out and brings it to God so that He can examine it for its good and evil deeds. Then        the archangel Gabriel brings the heart back to the grave. That is why the individuals on        their way home from a burial may not look back (see p. 37).</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>The widow remains at home for seven days after the death of her husband. Her        veiled face may be seen by no one. On a cord around her neck hangs a        death bell (killi) and a pendant (zum) made of a green        stone. In addition, she wears a copper ring on the great toe of her right foot for one year.        From time to time, she sucks a piece of natron.</t>
+  </si>
+  <si>
+    <t>At noon and in the evening, the oro (see p. 104) of her        husband walks around the widow's dwelling and would like to take possession of her. Then she        rings the death bell to drive away the spirit.</t>
+  </si>
+  <si>
+    <t>For a year, a widow is regarded as a mertede (see below, a bearer of the        evil eye.) During this year, no one may beat her, otherwise the person would become ill, and        no one may have intimate relations with her.</t>
+  </si>
+  <si>
+    <t>Similar rules apply to the widower, but he does not wear a ring on his big        toe and does not have a death bell. Instead, he wears a copper band on the ring finger of his        left hand.</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>a) A sacrifice for the dead and a ceremonial meal take place on the seventh day after the        burial.                        At noon, the women gather in the tent of the dead. The nearest female        relative of the deceased falls into spasms, her cries become more and more rhythmical, her        torso starts to fall in different directions according to the rhythm, and the women sitting        around her must continually catch her so that she will not fall to the ground, and one has        the impression that the women sitting in the circle are throwing the torso        of the screaming woman from one to another. While this is going on, the women sing songs of        lament.</t>
+  </si>
+  <si>
+    <t>The closest male relative of the deceased slaughters a he-goat, the head        and legs of which are given to a former slave (according to Lecoeur;   see also, on p.        112, the extremely interesting use made of the head and legs of the sacrificial animal). A         muallim who is present gets a shoulder blade.</t>
+  </si>
+  <si>
+    <t>Meanwhile, the women have prepared a few tibi, and, after sundown when        everyone has gathered in front of the death tent, the tibi and the        sacrificial meat are distributed by a man who is known for his excellent memory, for no one        must be forgotten in the distribution which now takes place. The pieces of meat are stuck on        wooden sticks and placed in the bowls filled with tibi—in each bowl        a piece of meat. Before everything, as many pieces of meat  are set aside as        there are old men present; if the derdai is taking part in this ceremony, a        particularly large tibi bowl is reserved for him.</t>
+  </si>
+  <si>
+    <t>ms22-000</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>The body of the deceased is washed either by a religious leader or an elder man. The corpse is buried in graves, often marked by a stone heap and a palm rod. Memorial feasts are offered few days after the day of death and on several other occasions later on.</t>
+  </si>
+  <si>
+    <t>Simpson, Jan.</t>
+  </si>
+  <si>
+    <t>Culture summary: Teda</t>
+  </si>
+  <si>
+    <t>Identification  (101), Culture summary  (105)</t>
+  </si>
+  <si>
+    <t>not specified</t>
+  </si>
+  <si>
+    <t>no date</t>
+  </si>
+  <si>
+    <t>http://ehrafworldcultures.yale.edu/document?id=ms22-000</t>
+  </si>
+  <si>
+    <t>Simpson, Jan. 2011. “Culture Summary: Teda.” New Haven, Conn.: Human Relations Area Files. http://ehrafworldcultures.yale.edu/document?id=ms22-000.</t>
   </si>
 </sst>
 </file>
@@ -728,7 +661,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -785,34 +718,37 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -824,147 +760,147 @@
         <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="L5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="L6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -973,36 +909,36 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="L7" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -1010,34 +946,37 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="L8" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -1045,34 +984,37 @@
       <c r="D9" t="s">
         <v>15</v>
       </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="L9" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -1080,34 +1022,37 @@
       <c r="D10" t="s">
         <v>15</v>
       </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="L10" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -1116,36 +1061,36 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="L11" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -1153,34 +1098,37 @@
       <c r="D12" t="s">
         <v>15</v>
       </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="J12" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="L12" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1189,36 +1137,36 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="L13" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1227,36 +1175,36 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="J14" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="L14" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -1265,36 +1213,36 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="F15" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="J15" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="L15" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -1303,36 +1251,36 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="J16" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="L16" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -1341,36 +1289,36 @@
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="F17" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="J17" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="L17" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -1379,36 +1327,36 @@
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="J18" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="L18" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
@@ -1417,36 +1365,36 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="F19" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="J19" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="L19" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -1455,36 +1403,36 @@
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="F20" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="G20" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="H20" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="I20" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J20" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="L20" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -1492,34 +1440,37 @@
       <c r="D21" t="s">
         <v>15</v>
       </c>
+      <c r="E21" t="s">
+        <v>71</v>
+      </c>
       <c r="F21" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="G21" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="H21" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="I21" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J21" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="L21" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
@@ -1527,34 +1478,37 @@
       <c r="D22" t="s">
         <v>15</v>
       </c>
+      <c r="E22" t="s">
+        <v>72</v>
+      </c>
       <c r="F22" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="G22" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="H22" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="I22" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J22" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="L22" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -1562,34 +1516,37 @@
       <c r="D23" t="s">
         <v>15</v>
       </c>
+      <c r="E23" t="s">
+        <v>73</v>
+      </c>
       <c r="F23" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="G23" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="H23" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="I23" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J23" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="L23" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
@@ -1597,34 +1554,37 @@
       <c r="D24" t="s">
         <v>15</v>
       </c>
+      <c r="E24" t="s">
+        <v>74</v>
+      </c>
       <c r="F24" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="G24" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="H24" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="I24" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J24" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="L24" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
@@ -1632,26 +1592,523 @@
       <c r="D25" t="s">
         <v>15</v>
       </c>
+      <c r="E25" t="s">
+        <v>75</v>
+      </c>
       <c r="F25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25" t="s">
+        <v>67</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" t="s">
+        <v>67</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" t="s">
+        <v>67</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" t="s">
+        <v>66</v>
+      </c>
+      <c r="J28" t="s">
+        <v>67</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" t="s">
+        <v>66</v>
+      </c>
+      <c r="J29" t="s">
+        <v>67</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H30" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" t="s">
+        <v>66</v>
+      </c>
+      <c r="J30" t="s">
+        <v>67</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" t="s">
+        <v>66</v>
+      </c>
+      <c r="J31" t="s">
+        <v>67</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" t="s">
+        <v>64</v>
+      </c>
+      <c r="H32" t="s">
+        <v>65</v>
+      </c>
+      <c r="I32" t="s">
+        <v>66</v>
+      </c>
+      <c r="J32" t="s">
+        <v>67</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H33" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" t="s">
+        <v>66</v>
+      </c>
+      <c r="J33" t="s">
+        <v>67</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" t="s">
+        <v>64</v>
+      </c>
+      <c r="H34" t="s">
+        <v>65</v>
+      </c>
+      <c r="I34" t="s">
+        <v>66</v>
+      </c>
+      <c r="J34" t="s">
+        <v>67</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" t="s">
+        <v>64</v>
+      </c>
+      <c r="H35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I35" t="s">
+        <v>66</v>
+      </c>
+      <c r="J35" t="s">
+        <v>67</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" t="s">
+        <v>64</v>
+      </c>
+      <c r="H36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" t="s">
+        <v>66</v>
+      </c>
+      <c r="J36" t="s">
+        <v>67</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H37" t="s">
+        <v>65</v>
+      </c>
+      <c r="I37" t="s">
+        <v>66</v>
+      </c>
+      <c r="J37" t="s">
+        <v>67</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" t="s">
+        <v>94</v>
+      </c>
+      <c r="F38" t="s">
         <v>95</v>
       </c>
-      <c r="G25" t="s">
-        <v>106</v>
-      </c>
-      <c r="H25" t="s">
-        <v>107</v>
-      </c>
-      <c r="I25" t="s">
-        <v>60</v>
-      </c>
-      <c r="J25" t="s">
-        <v>108</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="L25" t="s">
-        <v>110</v>
+      <c r="G38" t="s">
+        <v>96</v>
+      </c>
+      <c r="H38" t="s">
+        <v>97</v>
+      </c>
+      <c r="I38" t="s">
+        <v>98</v>
+      </c>
+      <c r="J38" t="s">
+        <v>99</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L38" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1680,6 +2137,19 @@
     <hyperlink ref="K23" r:id="rId22"/>
     <hyperlink ref="K24" r:id="rId23"/>
     <hyperlink ref="K25" r:id="rId24"/>
+    <hyperlink ref="K26" r:id="rId25"/>
+    <hyperlink ref="K27" r:id="rId26"/>
+    <hyperlink ref="K28" r:id="rId27"/>
+    <hyperlink ref="K29" r:id="rId28"/>
+    <hyperlink ref="K30" r:id="rId29"/>
+    <hyperlink ref="K31" r:id="rId30"/>
+    <hyperlink ref="K32" r:id="rId31"/>
+    <hyperlink ref="K33" r:id="rId32"/>
+    <hyperlink ref="K34" r:id="rId33"/>
+    <hyperlink ref="K35" r:id="rId34"/>
+    <hyperlink ref="K36" r:id="rId35"/>
+    <hyperlink ref="K37" r:id="rId36"/>
+    <hyperlink ref="K38" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/main/results.xlsx
+++ b/main/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="124">
   <si>
     <t>HRAF Document ID</t>
   </si>
@@ -73,7 +73,7 @@
     <t>Black nomads of the Sahara:</t>
   </si>
   <si>
-    <t>Cultural identity and pride  (186), Ethos  (181), Internal migration  (166), External migration  (167), Settlement patterns  (361), Water supply  (312), (23), Tribe and nation  (619), Clans  (614), Traditional history  (173), Normal garb  (291), History  (175), External relations  (648), Annual cycle  (221), Offenses against life  (682), Status, role, and prestige  (554), Culture summary  (105), Location  (131)</t>
+    <t>Burial practices and funerals (764)</t>
   </si>
   <si>
     <t>1930-1937</t>
@@ -91,6 +91,9 @@
     <t>However, at Ounianga Serir, a palm grove situated northwest of Ennedi, the dead were even recently interred by being                       placed in a crouched position on a flat rock, with stones heaped on the corpse.   The Toubou graves of the oasis of Kufra contain dead placed in this seated position. Covered, not with stones, but with mounds of salt, they have been preserved in their shrouds of skin or of mats. Rohlfs described them thus.</t>
   </si>
   <si>
+    <t>Prehistory (172), Burial practices and funerals (764)</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
@@ -100,12 +103,18 @@
     <t>Be that as it may, this way of interring the dead, which is that of protohistoric Egypt, seems to have been very widespread, not only in the Sahara, but in the African East and West, and Clapperton mentions several tribes of Nigeria that still practiced it in the 19th century in the vicinity of the Islamized zone.                          One might imagine that, where it is no longer practiced, it disappeared only under the influence of Islam.</t>
   </si>
   <si>
+    <t>Burial practices and funerals (764), Comparative evidence (171), Acculturation and culture contact (177)</t>
+  </si>
+  <si>
     <t>40</t>
   </si>
   <si>
     <t>At Kufra, in the various oases of this group, which extend more than 200 kilometers from Taïzerbo to Bou-Zeima, Ribiana and Kebabo, they have left ruins and numerous burial places where one finds skeletons that are “seated” and, sometimes, it seems, mummified. The Toubous of Kufra were not yet Islamized at the end of the XVIIIth century (Kufar means “pagan” in Arabic).</t>
   </si>
   <si>
+    <t>Settlement patterns (361), Prehistory (172), Burial practices and funerals (764), Religious denominations (795), History (175)</t>
+  </si>
+  <si>
     <t>243</t>
   </si>
   <si>
@@ -115,28 +124,46 @@
     <t>The deceased belong to God and to Islam, and if those who bury him sometimes deviate from the rules it is out of ignorance. The most pious, the ones most acquainted with the religion, take possession of the corpse. They bathe it, clothe it in a loincloth, trousers, shirt, a cap and a turban. They sew it into a piece of white cloth. If it is a woman, old women lay it out, clothe the corpse in feminine garments and sew it into the shroud. Children under seven years are given only a loincloth and a shroud.</t>
   </si>
   <si>
+    <t>Burial practices and funerals (764), Special burial practices and funerals (766), Status of children (858)</t>
+  </si>
+  <si>
     <t>Burial takes place the same day, and there is therefore no  wake. The corpse is placed on a stretcher and carried to the burial site. The marabout, if there is one, recites the fatiha and the tekbir. The corpse is placed in the pit, the face turned in the direction of Mecca. A mat keeps it from contact with the ground and the pit is filled up. Thorny branches cover the grave to keep off wild animals. The stretcher is left on the spot. Upon return /from the grave/ a gift is given to the marabout who said the prayer.</t>
   </si>
   <si>
+    <t>Burial practices and funerals (764), Prophets and ascetics (792), Theological systems (779), Gift giving (431)</t>
+  </si>
+  <si>
     <t>Before interment, an animal is sacrificed, millet porridge and fritters are made. Visitors are invited to share this meal, part of which is given the children. Ten to 40 days later, depending on the region, a very large sadaga of sheep and goats takes place, and tibi is prepared. All those who have made condolence visits are invited. The nearest relatives of the deceased eat little or not at all. Part of the tibi and the sacrificial animal is carried to the grave. The fat is burned “for God”. One year later, these sacrifices are renewed, in the course of which up to 40 goats are sometimes killed. In the years that follow, the graves are no longer visited. Only                       some old women return to weep on the graves of their husbands. The memory of the dead is perpetuated in other rites, practiced especially in Tibesti.</t>
   </si>
   <si>
+    <t>Mourning (765), Prayers and sacrifices (782), Cult of the dead (769), Eating (264)</t>
+  </si>
+  <si>
     <t>244</t>
   </si>
   <si>
     <t>* * * * *</t>
   </si>
   <si>
+    <t>Mourning (765), Prayers and sacrifices (782), Cult of the dead (769)</t>
+  </si>
+  <si>
     <t>248</t>
   </si>
   <si>
     <t>The small livestock involved in the inheritance is used, in part, for sacrifices, and for the meal arranged for those attending the funeral and especially during the big sadaga which took place one year after the death, to which the largest possible number of guests was invited. It happens that several dozen goats are thus killed, and this extravagance contrasts with the parsimoniousness which the Toubou habitually exhibit in butchering stock, that causes them sometimes to go several months without eating meat. It seems that here too this livestock is always considered as belonging to the deceased, and not as being the property of such and such an heir, and it seems normal to sacrifice it. The relatives who live in the immediate vicinity of the deceased, moreover, do not deny themselves in doing away with a good share of these animals before the arrival of co-heirs, even apart from the ritual meals. It does not seem that they are very much reproached, since this seems natural.</t>
   </si>
   <si>
+    <t>Inheritance (428), Social readjustments to death (768), Domesticated animals (231), Prayers and sacrifices (782), Mourning (765), Diet (262)</t>
+  </si>
+  <si>
     <t>261</t>
   </si>
   <si>
     <t>The one presumed to be guilty can also be called upon to swear either by the Koran or by his amulets or by the traditional oath of his clan. The perjurer, according to popular belief, dies within a year. It is always humiliating and dangerous to submit to an oath.</t>
+  </si>
+  <si>
+    <t>Trial procedure (695), Life and death (761)</t>
   </si>
   <si>
     <t>ms22-001</t>
@@ -155,7 +182,7 @@
     <t>The Teda of Tibesti, Borku, and Kawar in the eastern Sahara:</t>
   </si>
   <si>
-    <t>Identification  (101), Location  (131), Water supply  (312), Ethnobotany  (824), Clans  (614), Traditional history  (173), Prehistory  (172), History  (175), External relations  (648), Production and supply  (433), Tillage  (241), Arboriculture  (245), Domesticated animals  (231), Pastoral activities  (233), Settlement patterns  (361), Flora  (137), Internal trade  (438), External trade  (439), Dwellings  (342), Normal garb  (291), Personal grooming  (302)</t>
+    <t>Organization and analysis of results of research (128), Ceramic technology (323), Slavery (567), Burial practices and funerals (764)</t>
   </si>
   <si>
     <t>1942-1950</t>
@@ -176,27 +203,42 @@
     <t>The Tibesti Teda prefer to have a religious clerk (Arabic fiqih, plural fuqaha) officiate at weddings and funerals, administer Moslem law, and write charms for them; but since none of their own men are qualified for this profession, and Tibesti attracts few foreign literati, they usually have to accept the services of a fellow countryman who has only a smattering of the Koran. In Kawar and Borku well qualified clerks are more available.</t>
   </si>
   <si>
+    <t>Priesthood (793), Nuptials (585), Burial practices and funerals (764), Theological systems (779)</t>
+  </si>
+  <si>
     <t>[p. 48-B]</t>
   </si>
   <si>
     <t>Teda burial rites follow Moslem practice only in the most general way. They are simple but somewhat varied. The body is washed, wrapped in a shroud, covered with a mat, and carried to its resting place on a bier of palm branches. Noel says that in                                 Tibesti it is wrapped in a large roll of sheepskin. Some Teda bury it in a very shallow trench with the head to the south, piling over the grave a heap of thorn branches to protect it from jackals. In Tibesti the body is often laid on the surface of the ground and covered with a cairn or a small mound.</t>
   </si>
   <si>
+    <t>Burial practices and funerals (764), Cultural participation (184)</t>
+  </si>
+  <si>
     <t>[p. 49-A]</t>
   </si>
   <si>
     <t>Slaves dig the grave. According to Noel, the Tibesti Teda measure the corpse and the length of the grave with a stick which they bury in the mound over the grave. He says that the interment is performed under a temporary shelter; that the body is removed from the sheepskin robe and lowered into the grave so as to lie on its left side with the head to the south; and that a little wet earth is put on various parts of the body before the grave is filled in. The shelter is then taken down and the grave filled with three successive layers: the first of pebbles, the second of earth, the third of large stones. Noel mentions two upright gravestones, one at about two feet from the head of the grave, the other at the same distance from the foot. Other observers state that no gravestones are erected — a most unusual deficiency for Moslems — and that though the face is turned to the east, the body may lie in various directions. The palm-branch bier is left at the grave. Solitary graves are common, but most people are buried in small cemeteries at some distance from the camp or village. The Unia of Unianga place the corpse in a folded posture with knees against the chin, building over it a tomb of stones like the prehistoric “bazinas” of the Sahara. Teda may have followed a similar practice until recently.</t>
   </si>
   <si>
+    <t>Burial practices and funerals (764), Cultural participation (184), Slavery (567), Comparative evidence (171)</t>
+  </si>
+  <si>
     <t>The relatives of the dead conduct the                  funeral without chanting or formal demonstrations of grief. If a marabut is available he prays at the interment and concludes the ceremony by reciting the opening chapter of the Koran. Three days later they slaughter a goat or a sheep and eat it at the grave. For the following year the widow should not change her clothes or remarry. In Tibesti she is secluded for four months and ten days after the death, wearing only white, sleeping on the bare ground, and eating with a spoon rather than with her fingers. It is believed that if she saw a man during this period, she would die or go blind. Female neighbors bring her food, water, and firewood. At the end of her seclusion she puts on her normal costume and ornaments and may remarry. She often marries her husband's younger brother. There are no similar seclusion rites for a widower, though in some parts of Tibesti he lets his hair and beard grow for a few months. A year after the death the family returns to the grave for                                 the feast which terminates the mourning. In general the Teda show little interest in life after death.</t>
   </si>
   <si>
+    <t>Mourning (765), Cultural participation (184), Priesthood (793), Theological systems (779), Domesticated animals (231), Secondary marriages (587)</t>
+  </si>
+  <si>
     <t>[p. 49-B]</t>
   </si>
   <si>
     <t>For weddings and funerals a goat is usually slaughtered within a circle of upright stones and the meat cooked on a stone hearth within this enclosure.</t>
   </si>
   <si>
+    <t>Domesticated animals (231), Nuptials (585), Burial practices and funerals (764)</t>
+  </si>
+  <si>
     <t>ms22-002</t>
   </si>
   <si>
@@ -212,9 +254,6 @@
     <t>The Teda of Tibesti:</t>
   </si>
   <si>
-    <t>Clans  (614), Identification  (101), Informants  (115), Reviews and critiques  (114), Mythology  (773), Sacred objects and places  (778), Cult of the dead  (769), Ethnic stratification  (563), Slavery  (567), Nuptials  (585), Family relationships  (593), Historical reconstruction  (174), Historical reconstruction  (174), Chief executive  (643), Pastoral activities  (233), Marriage  (580)</t>
-  </si>
-  <si>
     <t>1850-1958</t>
   </si>
   <si>
@@ -242,6 +281,9 @@
     <t>The bier is always borne by an even number of men who softly hum bismillah      as they proceed. Two women carrying goat bags filled with water follow the      procession at a slight distance. Otherwise, no women take part in a burial, “for the      women lament and God does not like that.”</t>
   </si>
   <si>
+    <t>Burial practices and funerals (764), Gender status (562)</t>
+  </si>
+  <si>
     <t>The bier with the corpse is set down at the grave in front of which the mourners, standing,      repeat the fatiha without proskynese      /prayer formula?/; finally, the cords are loosened during which the corpse      is shaded with a cloth, for the sun must not see the corpse (p. 119), and it is carefully      lowered into the grave, the face turned toward the east, the head toward the south. Lastly, the      grave is covered with large stones, then with a layer of sand mixed with water, then with more      stones, and a large stone is often placed at the head and the feet—in the case of women      also over the abdomen.</t>
   </si>
   <si>
@@ -260,36 +302,60 @@
     <t>The sabayin are demons. Among them there are good and bad        ones, Christians and Moslems. They live like human beings, marry, and also come to Bardai to        get dates. There are sabayin who are married to human women: these are        women who,  on Fridays, go raving mad or become ill, for that is when their sabayin husbands come to them. The sabayin live mostly in        the valleys and at the foot of mountains, also chiefly in sandy areas.        They lay their babies in the sand, and it often happens that a human being will step on such        a sabayin baby, which results in illness and often death of this human        being. Often, the wanderer will see a sabayin that approaches him like a        giant, tall as a palm tree; when you stand in front of him he will quickly turn himself into        a rock or a palm tree. Requin   also mentions that “their belief in        devils, in malevolent spirits, is extremely vivid, and everybody knows that the solitary        wanderer, lost at night on the mountain, risks seeing a                       demoniacal spirit appear in the form of a mouflon or a sheep, which will kill        him or announce to him the death of a relative.” /transl. from Fr./        Children, especially, from the age of eight to about thirteen, have the gift of seeing the         sabayin. One can kill a sabayin with a gun shot or the        thrust of a lance, but the “murderer” must die if other sabayin learn of it.</t>
   </si>
   <si>
+    <t>Spirits and gods (776), Theory of disease (753), Life and death (761)</t>
+  </si>
+  <si>
     <t>104</t>
   </si>
   <si>
     <t>is the seat of feelings. Immediately after the burial of a deceased        person, while his relatives are going home, the archangel Gabriel comes, takes the deceased's        heart out and brings it to God so that He can examine it for its good and evil deeds. Then        the archangel Gabriel brings the heart back to the grave. That is why the individuals on        their way home from a burial may not look back (see p. 37).</t>
   </si>
   <si>
+    <t>Ethnoanatomy (826), Life and death (761), Spirits and gods (776)</t>
+  </si>
+  <si>
     <t>105</t>
   </si>
   <si>
     <t>The widow remains at home for seven days after the death of her husband. Her        veiled face may be seen by no one. On a cord around her neck hangs a        death bell (killi) and a pendant (zum) made of a green        stone. In addition, she wears a copper ring on the great toe of her right foot for one year.        From time to time, she sucks a piece of natron.</t>
   </si>
   <si>
+    <t>Mourning (765), Musical instruments (534), Ornament (301)</t>
+  </si>
+  <si>
     <t>At noon and in the evening, the oro (see p. 104) of her        husband walks around the widow's dwelling and would like to take possession of her. Then she        rings the death bell to drive away the spirit.</t>
   </si>
   <si>
+    <t>Mourning (765), Eschatology (775)</t>
+  </si>
+  <si>
     <t>For a year, a widow is regarded as a mertede (see below, a bearer of the        evil eye.) During this year, no one may beat her, otherwise the person would become ill, and        no one may have intimate relations with her.</t>
   </si>
   <si>
+    <t>Mourning (765)</t>
+  </si>
+  <si>
     <t>Similar rules apply to the widower, but he does not wear a ring on his big        toe and does not have a death bell. Instead, he wears a copper band on the ring finger of his        left hand.</t>
   </si>
   <si>
+    <t>Mourning (765), Ornament (301)</t>
+  </si>
+  <si>
     <t>111</t>
   </si>
   <si>
     <t>a) A sacrifice for the dead and a ceremonial meal take place on the seventh day after the        burial.                        At noon, the women gather in the tent of the dead. The nearest female        relative of the deceased falls into spasms, her cries become more and more rhythmical, her        torso starts to fall in different directions according to the rhythm, and the women sitting        around her must continually catch her so that she will not fall to the ground, and one has        the impression that the women sitting in the circle are throwing the torso        of the screaming woman from one to another. While this is going on, the women sing songs of        lament.</t>
   </si>
   <si>
+    <t>Mourning (765), Revelation and divination (787), Music (533)</t>
+  </si>
+  <si>
     <t>The closest male relative of the deceased slaughters a he-goat, the head        and legs of which are given to a former slave (according to Lecoeur;   see also, on p.        112, the extremely interesting use made of the head and legs of the sacrificial animal). A         muallim who is present gets a shoulder blade.</t>
   </si>
   <si>
+    <t>Mourning (765), Domesticated animals (231)</t>
+  </si>
+  <si>
     <t>Meanwhile, the women have prepared a few tibi, and, after sundown when        everyone has gathered in front of the death tent, the tibi and the        sacrificial meat are distributed by a man who is known for his excellent memory, for no one        must be forgotten in the distribution which now takes place. The pieces of meat are stuck on        wooden sticks and placed in the bowls filled with tibi—in each bowl        a piece of meat. Before everything, as many pieces of meat  are set aside as        there are old men present; if the derdai is taking part in this ceremony, a        particularly large tibi bowl is reserved for him.</t>
   </si>
   <si>
@@ -308,7 +374,7 @@
     <t>Culture summary: Teda</t>
   </si>
   <si>
-    <t>Identification  (101), Culture summary  (105)</t>
+    <t>Burial practices and funerals (764), Cult of the dead (769), Prayers and sacrifices (782)</t>
   </si>
   <si>
     <t>not specified</t>
@@ -766,7 +832,7 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
         <v>20</v>
@@ -786,7 +852,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -795,7 +861,7 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -804,7 +870,7 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
@@ -824,7 +890,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -833,7 +899,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -842,7 +908,7 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
         <v>20</v>
@@ -862,7 +928,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -871,7 +937,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -880,7 +946,7 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
         <v>20</v>
@@ -900,7 +966,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -909,7 +975,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
@@ -938,7 +1004,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -947,7 +1013,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
@@ -956,7 +1022,7 @@
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s">
         <v>20</v>
@@ -976,7 +1042,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -985,7 +1051,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
@@ -994,7 +1060,7 @@
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s">
         <v>20</v>
@@ -1014,7 +1080,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -1023,7 +1089,7 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
@@ -1032,7 +1098,7 @@
         <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="I10" t="s">
         <v>20</v>
@@ -1052,7 +1118,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -1061,7 +1127,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
@@ -1070,7 +1136,7 @@
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="I11" t="s">
         <v>20</v>
@@ -1090,7 +1156,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -1099,7 +1165,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -1108,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
         <v>20</v>
@@ -1128,7 +1194,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1137,7 +1203,7 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
@@ -1146,7 +1212,7 @@
         <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="I13" t="s">
         <v>20</v>
@@ -1163,10 +1229,10 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1175,36 +1241,36 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I14" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="J14" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="L14" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -1213,74 +1279,74 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="I15" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="L15" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" t="s">
         <v>53</v>
       </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>54</v>
       </c>
-      <c r="F16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" t="s">
-        <v>45</v>
-      </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="J16" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="L16" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -1289,36 +1355,36 @@
         <v>15</v>
       </c>
       <c r="E17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" t="s">
         <v>56</v>
       </c>
-      <c r="F17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" t="s">
-        <v>47</v>
-      </c>
       <c r="J17" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="L17" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -1327,74 +1393,74 @@
         <v>15</v>
       </c>
       <c r="E18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" t="s">
         <v>57</v>
       </c>
-      <c r="F18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" t="s">
-        <v>48</v>
-      </c>
       <c r="K18" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="L18" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="L19" t="s">
         <v>59</v>
-      </c>
-      <c r="F19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" t="s">
-        <v>47</v>
-      </c>
-      <c r="J19" t="s">
-        <v>48</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L19" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -1403,36 +1469,36 @@
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="I20" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="J20" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="L20" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -1441,36 +1507,36 @@
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="I21" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="J21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="L21" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
@@ -1479,36 +1545,36 @@
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="I22" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="L22" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -1517,36 +1583,36 @@
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="I23" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="L23" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
@@ -1555,36 +1621,36 @@
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="I24" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="J24" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="L24" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
@@ -1593,36 +1659,36 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="I25" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="L25" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
@@ -1631,36 +1697,36 @@
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="I26" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="L26" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
@@ -1669,36 +1735,36 @@
         <v>15</v>
       </c>
       <c r="E27" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" t="s">
         <v>77</v>
       </c>
-      <c r="F27" t="s">
-        <v>63</v>
-      </c>
       <c r="G27" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="I27" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="L27" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
@@ -1707,112 +1773,112 @@
         <v>15</v>
       </c>
       <c r="E28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" t="s">
         <v>78</v>
       </c>
-      <c r="F28" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" t="s">
-        <v>64</v>
-      </c>
       <c r="H28" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="I28" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="L28" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" t="s">
+        <v>95</v>
+      </c>
+      <c r="I29" t="s">
         <v>79</v>
       </c>
-      <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="J29" t="s">
         <v>80</v>
       </c>
-      <c r="F29" t="s">
-        <v>63</v>
-      </c>
-      <c r="G29" t="s">
-        <v>64</v>
-      </c>
-      <c r="H29" t="s">
-        <v>65</v>
-      </c>
-      <c r="I29" t="s">
-        <v>66</v>
-      </c>
-      <c r="J29" t="s">
-        <v>67</v>
-      </c>
       <c r="K29" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="L29" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" t="s">
+        <v>98</v>
+      </c>
+      <c r="I30" t="s">
+        <v>79</v>
+      </c>
+      <c r="J30" t="s">
+        <v>80</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="L30" t="s">
         <v>82</v>
-      </c>
-      <c r="F30" t="s">
-        <v>63</v>
-      </c>
-      <c r="G30" t="s">
-        <v>64</v>
-      </c>
-      <c r="H30" t="s">
-        <v>65</v>
-      </c>
-      <c r="I30" t="s">
-        <v>66</v>
-      </c>
-      <c r="J30" t="s">
-        <v>67</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L30" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
@@ -1821,36 +1887,36 @@
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="I31" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="L31" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
@@ -1859,36 +1925,36 @@
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="I32" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="J32" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="L32" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
@@ -1897,36 +1963,36 @@
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F33" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="I33" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="J33" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="L33" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
@@ -1935,36 +2001,36 @@
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="F34" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="I34" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="J34" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="L34" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
@@ -1973,36 +2039,36 @@
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="F35" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="I35" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="J35" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="L35" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
@@ -2011,36 +2077,36 @@
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="F36" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="I36" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="J36" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="L36" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
@@ -2049,36 +2115,36 @@
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="F37" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="I37" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="J37" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="L37" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
@@ -2087,28 +2153,28 @@
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="F38" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="G38" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="H38" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="I38" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="J38" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="L38" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/main/results.xlsx
+++ b/main/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="143">
   <si>
     <t>HRAF Document ID</t>
   </si>
@@ -50,16 +50,417 @@
   </si>
   <si>
     <t>Citation</t>
+  </si>
+  <si>
+    <t>fo07-010</t>
+  </si>
+  <si>
+    <t>254-256c</t>
+  </si>
+  <si>
+    <t>Azande</t>
+  </si>
+  <si>
+    <t>FO07</t>
+  </si>
+  <si>
+    <t>“Charms called Bagara ( Nyam-nyam), Tok ( Gour) ( vide Plate XVIII.), amongst these, as amongst all savage and semi-civilised people ( vide Third Report, Wellcome Tropical Research Laboratories, Khartoum,  page 284), play a most important part in their customs and very existence. Not only from a medical standpoint, but possessing as they do a potent influence and restraint over their general conduct and dealings with one another, they become indirectly a very decided factor for good throughout the community. Livingstone draws attention to this when he says, ‘The belief in the power of charms for good or evil produces not only honesty, but a great amount of gentle dealing--the powerful are often restrained in their despotism from a fear that the weak and helpless may injure them by their medical knowledge.’</t>
+  </si>
+  <si>
+    <t>Anderson, R. G.</t>
+  </si>
+  <si>
+    <t>Some tribal customs in their relation to medicine and morals of the Nyam-nyam and Gour people inhabiting the eastern Bahr-El-Ghazal</t>
+  </si>
+  <si>
+    <t>Ornament (301), Sacred objects and places (778), Magical and mental therapy (755)</t>
+  </si>
+  <si>
+    <t>not specified</t>
+  </si>
+  <si>
+    <t>no date</t>
+  </si>
+  <si>
+    <t>http://ehrafworldcultures.yale.edu/document?id=fo07-010</t>
+  </si>
+  <si>
+    <t>Anderson, R. G. 1911. “Some Tribal Customs In Their Relation To Medicine And Morals Of The Nyam-Nyam And Gour People Inhabiting The Eastern Bahr-El-Ghazal.” Fourth Report Of Wellcome Tropical Research Laboratories At The Gordon Memorial College Khatroum. London: Baillière, Tindall and Cox. http://ehrafworldcultures.yale.edu/document?id=fo07-010.</t>
+  </si>
+  <si>
+    <t>In their ‘medicine,’ charms are undoubtedly the most important factors for the prophylaxis, if not also in the cure, of disease.</t>
+  </si>
+  <si>
+    <t>‘Prevention is better than cure’ is an unwritten, even unrealised, instinctive motto of the savage, and so, in order to avoid the thousand and one ills that ‘flesh is heir to,’ he decorates himself with charms, prescribed by recognised authorities, collected by himself or borrowed from his Mohammedan brethren.</t>
+  </si>
+  <si>
+    <t>Again, to quote Livingstone on Central Africa, ‘Their religion... is one of dread, numbers of charms are employed to avert the evils with which they feel themselves to be encompassed. Occasionally you meet a man more cautious than the rest with twenty  or thirty charms hung round his neck, on the principle that among so many he surely must have the right one.’</t>
+  </si>
+  <si>
+    <t>254-256d</t>
+  </si>
+  <si>
+    <t>Most ornaments too, besides holding a position in the ‘decency of dress’ seem gradually to have attained a superstitious significance in the savage mind, as gems, trinkets, mascots, and the like do over the savage remnant in ourselves. Thus the Gours, an effeminate and more highly decorated people than the Nyam-nyam, wear every variety of ornament, rings, earrings, anklets, and bracelets ( vide Plate XVIII.), which are presumed, by adding charm to the body, to give it health, strength and increased vitality. (Indirectly they are right.) The Dinkas and Shilluks hold the same idea as regards their heavy ivory armlets and woven giraffe-hair neckbands, which are very hard to obtain on that account (Plate XVIII., fig. 1). [256]</t>
+  </si>
+  <si>
+    <t>As I have already remarked in discussing the ‘Theory of Disease,’ it is primarily against  Evil Spirits that these charms are directed, and secondly against the  Evil Eye. Thirdly, one must include also protection against the  active violence of men and beasts. As regards men no doubt this belief is justified, such charms being, as I have quoted, no mean safeguard to the weak and helpless or to the stranger, whose ‘unknown gods’ and unknown amulets form invaluable allies.</t>
+  </si>
+  <si>
+    <t>The wearing of charms is chiefly confined to the male, which is here, as among wild animals and birds, the ornamental sex. The females are very unadorned and unadorning.</t>
+  </si>
+  <si>
+    <t>254-256e</t>
+  </si>
+  <si>
+    <t>Each amulet is pierced with a brass or copper ring and hung on a band round the neck, wrist or waist in company with other beads and trinkets.”</t>
+  </si>
+  <si>
+    <t>fo07-056</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>The Azande spend hours on their coiffure and on the making of plaited straw hats, and there are several descriptions of the elaborate forms into which both may be shaped, or even woven into each other. There seem to be no distinctive styles reserved for different sections of society and fashions change frequently. Feathers are frequently used for decoration. Cases of baldness are rare, but in such circumstances wigs may be worn, and Larken even noticed one false beard. Some people grow their hair excessively long, and this is regarded as the gift of  Mbori, the Supreme Being, and is never cut.</t>
+  </si>
+  <si>
+    <t>Baxter, P.T.W.</t>
+  </si>
+  <si>
+    <t>The Azande, and related peoples of the Anglo-Egyptian Sudan and Belgian Congo</t>
+  </si>
+  <si>
+    <t>Personal grooming (302), Ornament (301), Descriptive somatology (142)</t>
+  </si>
+  <si>
+    <t>http://ehrafworldcultures.yale.edu/document?id=fo07-056</t>
+  </si>
+  <si>
+    <t>Baxter, P. T. W., and Audrey Butt. 1953. “Azande, And Related Peoples Of The Anglo-Egyptian Sudan And Belgian Congo.” Ethnographic Survey Of Africa, East Central Africa. London: International African Institute. http://ehrafworldcultures.yale.edu/document?id=fo07-056.</t>
+  </si>
+  <si>
+    <t>Azande have no specific tribal markings and they do not tattoo although they make elaborate keloid patterns all over the face and trunk. This practice is common all over Zandeland, and particularly in the Belgian Congo. Except under Arab influence, the face is not scarred. Designs are painted with a pointed stick on top of the scarification pattern, in a mixture of  mbiango juice and charcoal, which is a persistent dye. The Azande do not make great use of ornament, but ear lobes and noses are sometimes pierced for decoration, and pieces of quartz, pegs of wood, or cartridge cases may be inserted. Coils of brass wire ( maka), like compressed springs, are worn by some women round the forearm. Beads and magic whistles may be suspended round the neck or from the belt, but their purposes are not primarily decorative.</t>
+  </si>
+  <si>
+    <t>Personal grooming (302), Body alterations (304), Ornament (301)</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Women used to insert quartz or horn plugs into their lips, like the Nyangbara and Moru women. Men were not, at the beginning of the century, circumcised. The usual bride-price at this time was 12 to 20 sheep or goats, returnable to the husband if the wife died on a visit to her father, but not if she died at her husband’s homestead. After the birth of twins, Mundu used to make a feast “to keep the mother from witchcraft,” although Gray writes that twins are “lucky.” Mundu used recessed graves, like Azande. Gray describes the ritual used in a “blood purification ceremony.” He also states that they have a clan organization, though clans are not associated with any particular totems or prohibitions.</t>
+  </si>
+  <si>
+    <t>Ornament (301), Mode of marriage (583), Difficult and unusual births (845), Tribe and nation (619), Territorial hierarchy (631)</t>
+  </si>
+  <si>
+    <t>fo07-009</t>
+  </si>
+  <si>
+    <t>255c</t>
+  </si>
+  <si>
+    <t>“Beads are not much worn, the favourite sort being the hexagonal dark blue kind, called in the Sudan  Zeilan. Rings are beaten out of the brass and copper wire bought from the merchants.</t>
+  </si>
+  <si>
+    <t>Brock, R. G. C.</t>
+  </si>
+  <si>
+    <t>Some notes on the Zande tribe as found in the Meridi District (Bahr El Ghazal Province)</t>
+  </si>
+  <si>
+    <t>Ornament (301)</t>
+  </si>
+  <si>
+    <t>http://ehrafworldcultures.yale.edu/document?id=fo07-009</t>
+  </si>
+  <si>
+    <t>Brock, R. G. C. 1918. “Some Notes On The Zande Tribe As Found In The Meridi District (Bahr El Ghazal Province).” Sudan Notes And Records. [s.n.]. http://ehrafworldcultures.yale.edu/document?id=fo07-009.</t>
+  </si>
+  <si>
+    <t>Necklaces made out of dogs teeth were worn in the old days but are rarely seen now.”</t>
+  </si>
+  <si>
+    <t>fo07-028</t>
+  </si>
+  <si>
+    <t>206a</t>
+  </si>
+  <si>
+    <t>“Girls as well as boys are completely naked; attached to a rope round their waist the women wear a narrow cloth fastened to a waist-band or cord, at the back of which is a bunch of red or black dyed grass. They all stain their skin with red sawdust and with an oil which they procure from a wild berry. Both sexes wear large pins of ivory, iron, monkey or human bones, stuck in their hair, and iron rings, small chains, and bracelets adorn their necks, arms, and feet. The Sandeh are armed with long knives and spears; their shields are elliptically shaped, and made of wicker work; bows and arrows are the arms reserved for servants. They are warriors and hunters of repute, also good-tempered, intelligent, and reasonable; kindness, hospitality and loquacity being also amongst their distinguishing qualities.”</t>
+  </si>
+  <si>
+    <t>Casati, Gaetano, 1838-1902.</t>
+  </si>
+  <si>
+    <t>Ten years in Equatoria and the return with Emin Pasha, vol. 1</t>
+  </si>
+  <si>
+    <t>Normal garb (291), Ornament (301), Ethos (181)</t>
+  </si>
+  <si>
+    <t>1879-1889</t>
+  </si>
+  <si>
+    <t>http://ehrafworldcultures.yale.edu/document?id=fo07-028</t>
+  </si>
+  <si>
+    <t>Casati, Gaetano, Mrs. J. Randolph Clay, and I. Walter Savage Landor. 1891. “Ten Years In Equatoria And The Return With Emin Pasha, Vol. 1.” London And New York: Frederick Warne and Co. http://ehrafworldcultures.yale.edu/document?id=fo07-028.</t>
+  </si>
+  <si>
+    <t>fo07-061</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>Bagadi. Inner bark beaten out into large sheets, used for loincloths, shorts, wrapping babies, etc. Unfortunately cannot be washed.</t>
+  </si>
+  <si>
+    <t>Culwick, G. M.</t>
+  </si>
+  <si>
+    <t>A dietary survey among the Zande of the south-western Sudan</t>
+  </si>
+  <si>
+    <t>Ethnobotany (824), Felted and other non-interworked fabrics (287), Ornament (301), Woven and other interworked fabrics (286)</t>
+  </si>
+  <si>
+    <t>1947-1948</t>
+  </si>
+  <si>
+    <t>http://ehrafworldcultures.yale.edu/document?id=fo07-061</t>
+  </si>
+  <si>
+    <t>Culwick, Mrs., G. M. 1950. “Dietary Survey Among The Zande Of The South-Western Sudan.” Khartoum: Agricultural Publications Committee, Ministry of Agriculture, Sudan Govt. http://ehrafworldcultures.yale.edu/document?id=fo07-061.</t>
+  </si>
+  <si>
+    <t>fo07-020</t>
+  </si>
+  <si>
+    <t>32 [3]</t>
+  </si>
+  <si>
+    <t>Belts are ornamented with numerous hunting-trophies: tails of wild animals killed by the men hang from the belts, and usually a small knife of the usual Mangbetu shape. I counted twelve such ornaments hanging from Gangi’s belt.</t>
+  </si>
+  <si>
+    <t>Czekanowski, Jan.</t>
+  </si>
+  <si>
+    <t>Research in the Nile-Congo Region</t>
+  </si>
+  <si>
+    <t>Normal garb (291), Ornament (301)</t>
+  </si>
+  <si>
+    <t>1907-1908</t>
+  </si>
+  <si>
+    <t>http://ehrafworldcultures.yale.edu/document?id=fo07-020</t>
+  </si>
+  <si>
+    <t>Czekanowski, Jan. 1924. “Research In The Nile-Congo Region.” Wissenschaftliche Ergebnisse Der Deutschen Zentral Afrika Expedition, 1907-1908, Unter Führung Adolf Friedrichs, Herzogs Ze Mecklenburg. Leipzig: Klinkhardt und Biermann. http://ehrafworldcultures.yale.edu/document?id=fo07-020.</t>
+  </si>
+  <si>
+    <t>33 [2]</t>
+  </si>
+  <si>
+    <t>Azande jewelry consists of bracelets for arms and ankles, small chains, necklaces, and hairpins which also serve to fasten on the straw caps. These hairpins are the same as the Mangbetu ones, and are fashioned from iron, brass, ivory and bone. By means of these pins, both men and women achieve hair-styles that are works of art. Necklaces made out of dogs’ teeth are particularly prized.</t>
+  </si>
+  <si>
+    <t>fo07-068</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>In his memoirs he alleges that the young women preferred to go about naked because they thought that nakedness appealed to the men. If indeed some were  del tutto scoperte, and on a matter of this kind Piaggia’s memory could scarcely have played him false, they cannot, I believe, have been Ambomu or even Azande in the sense of assimilated foreigners. They could have been Babukur (Abuguru), a people who probably formed the majority of the population of Tombo’s kingdom, about which Piaggia was speaking, though if this were so he was clearly unaware of the fact. However, we have no authority for asserting that this people went about naked. The only other writer who says that the Azande were naked was Poncet, but he appears never to have himself visited Zandeland and to have relied on reports from his Arabo-Nubian followers. He states that the women (of the Adio Azande) wore leaves before and behind and that the men were naked. His statement that these Zande men were naked cannot be correct, for Junker, writing, a few years later it is true, as an eye-witness of the same Azande (Bombehs or Makaraka—the Adio), says: ‘The men wear a coarse bark cloth made of the  Urostigma, the women an apron of foliage, besides a heavy load of iron rings and other ornaments.... As spoils of the chase the men deck themselves with the skin of  Antilope scripta, and of the beautiful Colobus ape, the former hanging from the shoulder, the latter on the back fastened round the hips.’ He also says, speaking of the same section of the Azande, that ‘The clothes, for the most part limited to loin-cloths, belong also to the military outfit. They are made of the hides of animals, the Shirr antelope, the genet, and the beautiful Guereza ape, and the effect is fantastic and picturesque.’ These skins are worn today only by witch-doctors during their performances, and perhaps we should regard their professional costume as a survival of what was once normal dress, as is suggested also by another of their effects, a belt hung with bells cut out of the stones of the fruit of the Borassus palm, figured by Schweinfurth  and described as ‘a favourite ornament with the Niam-niam, worn at dances’.</t>
+  </si>
+  <si>
+    <t>Evans-Pritchard, E. E., (Edward Evan) 1902-1973.</t>
+  </si>
+  <si>
+    <t>The Azande: history and political institutions</t>
+  </si>
+  <si>
+    <t>History (175), Normal garb (291), Reviews and critiques (114), Identification (101), Felted and other non-interworked fabrics (287), Ornament (301), Animal by-products (237), Uniform and accouterment (714), Historical reconstruction (174), Special garments (292), Shamans and psychotherapists (756), Theoretical orientation in research and its results (121)</t>
+  </si>
+  <si>
+    <t>ca. 1863 - 1930</t>
+  </si>
+  <si>
+    <t>1926-1930</t>
+  </si>
+  <si>
+    <t>http://ehrafworldcultures.yale.edu/document?id=fo07-068</t>
+  </si>
+  <si>
+    <t>Evans-Pritchard, E. E. (Edward Evan). 1971. “Azande: History And Political Institutions.” Oxford: Clarendon Press. http://ehrafworldcultures.yale.edu/document?id=fo07-068.</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Here it must be emphasized that the Ambomu are undoubtedly indebted to the Mangbetu for many improvements in their arts. This is evident, as will be further noted later, in the drawings Schweinfurth made a century ago; and he remarks that in 1870 the two peoples engaged in trade. Furthermore, Junker observed in 1882 that the Azande who lived near the Mangbetu had adopted some of their fashions. Besides those metal objects already mentioned, from the same direction came also the  abeni, a specially well-worked ceremonial knife (or scimitar) with an ivory handle. Indeed Czekanowski suggests, I think rightly, that the ceremonial knife as such ( mambele in Zande,  nambele in Mangbetu), which he calls  Buschmesser, may well be Mangbetu in origin. A few smiths in Gbudwe’s kingdom and during his reign mastered the art of making the more elaborate of these ceremonial knives. One type of axe, called  bamangwa, which has a little spike so that it can be stuck into the ground and was made not so much for use as for bride-wealth, is also Mangbetu. The throwing-knife is certainly an old Mbomu weapon, but the sort called  kpinga basa, which lacks the small protuberance between the two front blades, the distinguishing mark of the Mbomu type, came from the Abandiya, though it was in use in Schweinfurth’s time. Schweinfurth tells us that the Mangbetu, far more skilful smiths than the Azande, supplied the latter with some of these weapons, receiving in return heavy lances for hunting elephant and buffalo. The Mangbetu, he says, do not themselves use the throwing-knife. Czekanowski cites Emin Pasha in support of the view that the iron hair-pins rarely seen among the Mangbetu are due to Zande influence.  One sort of adze ( naba) is said to be Mbomu; another type to be Miangba. It may be added that Piaggia does not give the impression that he regarded the Azande of a century ago as being more than moderately competent in the manufacture of metal objects.</t>
+  </si>
+  <si>
+    <t>Historical reconstruction (174), Acculturation and culture contact (177), External trade (439), General tools (412), Vocabulary (192), Smiths and their crafts (326), Mode of marriage (583), Ornament (301)</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>I did not myself make inquiries into the origin of objects worked in ivory and bone. Fr. Giorgetti says that the hair-pins of human fibula belonged to the Madi culture, as did the word for them,  nguma, a term which later entered into the Zande  language and was applied to the fibula of baboons. He also claims that the necklaces of dogs’ and baboons’ teeth and of worked ivory were all of Barambo-Madi workmanship. He furnishes this information in an attempt to show that Schweinfurth, who mentions the objects referred to, was in the main, as suggested above, writing about only partly assimilated foreigners rather than about Ambomu or true Azande.</t>
+  </si>
+  <si>
+    <t>Historical reconstruction (174), Acculturation and culture contact (177), Ornament (301), Bone, horn, and shell technology (321), Vocabulary (192)</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>His straw hat was woven with great skill and it had a wide brim all round it; and cowries were woven round the base of the crown, completely encircling it. He took two hat-pins, beaten out of white metal, and he stuck in one on one side and the other on the other side. His hat was marvellously fine, and when he wore it, it suited him splendidly, and he looked a great king indeed. When he approached people from afar you could not mistake Gbudwe. He was a marvellous prince.</t>
+  </si>
+  <si>
+    <t>Normal garb (291), Ornament (301), Traditional history (173), Chief executive (643)</t>
+  </si>
+  <si>
+    <t>fo07-058</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>Junker also greatly admired the simplicity of dress and manners of the older kings and was inclined to be critical of the younger generation. We have noted that he called Prince Palembata a ‘fop’. Another princeling he met was Binsa, son of King Malingindo, a youth who, he says, lacked the dignity of the older Zande rulers and was a typical dandy of the rising generation. These young lordlings gave considerable attention to the adornment of their persons. ‘The hair especially is treated with amazing care, and, at an expenditure of much time, built up in a great variety of head-dresses. The triumphs of our European dames in this respect are far surpassed by the rich diversity of these elaborate coiffures. The towering toupees, or the arrangement of narrow tresses clinging close to the head and falling in wreathes down to the shoulders, are often decked with cowrie shells, glass beads, little copper plates, and other trinkets. A favourite adornment of the forehead is a string of dogs’ teeth or of a small wild animals’, while the neck is encireled by diverse fine copper, iron, or bead rings, and the like. But the most costly and highly-prized is an ivory ornament falling low down on the breast, and consisting of thirty or forty cylinders from one and a half to two and a half inches long, strung together according to their size, and terminating in a point downwards. The cylinders are supposed to represent the teeth of predatory animals, especially lions, which are very difficult to procure. Throughout the Zandeh lands the lion compared to the leopard is very rare, whereas in those regions where lions are numerous, leopards are seldom seen. These ivory ornaments, whose preparation with their primitive tools involves an amazing display of skill and patience, belong properly to an earlier, one might almost say a classical, period of native art, and are now possessed only by a privileged few.</t>
+  </si>
+  <si>
+    <t>Evans-Pritchard, E. E., (Edward Evan), 1902-1973.</t>
+  </si>
+  <si>
+    <t>Zande Kings and Princes</t>
+  </si>
+  <si>
+    <t>Reviews and critiques (114), Age stratification (561), Chief executive (643), Executive household (644), Personal grooming (302), Ornament (301), Animal by-products (237), Ethnozoology (825), Sociocultural trends (178)</t>
+  </si>
+  <si>
+    <t>ca. 1865-ca. 1905</t>
+  </si>
+  <si>
+    <t>http://ehrafworldcultures.yale.edu/document?id=fo07-058</t>
+  </si>
+  <si>
+    <t>Evans-Pritchard, E. E. (Edward Evan). 1962. “Zande Kings And Princes.” Essays In Social Anthropology. London: Faber and Faber. http://ehrafworldcultures.yale.edu/document?id=fo07-058.</t>
+  </si>
+  <si>
+    <t>fo07-023</t>
+  </si>
+  <si>
+    <t>38b</t>
+  </si>
+  <si>
+    <t>“It may here be remarked that the typical Zandeh character prevails everywhere, amongst those dwelling north of the Welle [JMA: Uele], as well as amongst these southern branches. Contact with foreign peoples had, however, already given rise to certain differences. Thus the southerners had adopted the delicately-plaited frontal band of their neighbors, while the women affected the towering top-knot of their Mangbattu sisters.”</t>
+  </si>
+  <si>
+    <t>Junker, Wilhelm, 1840-1892.</t>
+  </si>
+  <si>
+    <t>Travels in Africa during the years 1882-1886</t>
+  </si>
+  <si>
+    <t>Acculturation and culture contact (177), Ornament (301)</t>
+  </si>
+  <si>
+    <t>1882-1886</t>
+  </si>
+  <si>
+    <t>http://ehrafworldcultures.yale.edu/document?id=fo07-023</t>
+  </si>
+  <si>
+    <t>Junker, Wilhelm. 1892. “Travels In Africa During The Years 1882-1886.” London: Chapman and Hall, Ltd. http://ehrafworldcultures.yale.edu/document?id=fo07-023.</t>
+  </si>
+  <si>
+    <t>fo07-008</t>
+  </si>
+  <si>
+    <t>37b</t>
+  </si>
+  <si>
+    <t>“A hat is not really complete until a bunch or plume of feathers has been attached to it.... Tail feathers of a cock pheasant... are very popular, with their barred markings, but those of a domestic cock are almost better....</t>
+  </si>
+  <si>
+    <t>Larken, P. M.</t>
+  </si>
+  <si>
+    <t>An account of the Zande</t>
+  </si>
+  <si>
+    <t>ca. 1925</t>
+  </si>
+  <si>
+    <t>http://ehrafworldcultures.yale.edu/document?id=fo07-008</t>
+  </si>
+  <si>
+    <t>Larken, P. M. 1926–1927. “Account Of The Zande.” Sudan Notes And Records. Khartoum: [s.n.]. http://ehrafworldcultures.yale.edu/document?id=fo07-008.</t>
+  </si>
+  <si>
+    <t>Large feathers of any big bird, such as a bustard, goose or guinea-fowl are stripped from the quill, remaining like short lengths of ribbon. A bunch of these is made and tied to the side of the hat. Some people prefer a large pompom of stiffer feathers, clipped into a round ball; this is usually not seen on a young man, but on an older one who does not go in any longer for dancing.</t>
+  </si>
+  <si>
+    <t>Bunches of the crimson wing feathers of the  kurua ( turacus leucolophus) are common, or of the brown  tuutu ( centropus Heuglini), but the latter should not be worn by young men or they will lose their strength and become weak and aimless like the bird itself.</t>
+  </si>
+  <si>
+    <t>Feathers are sometimes bound on to a comb and held in the hair thus, but they are never attached directly to the head.”</t>
+  </si>
+  <si>
+    <t>37-39a</t>
+  </si>
+  <si>
+    <t>“Men do not greatly favour ornaments. A warthog’s lower tusk may be suspended at the back of the neck by a string, or there may be an inconspicuous bracelet of copper or brass wire on the wrist with a few [38] little wooden talismans depending from it, but the only jewellery that is universal is a flat brass ring, roughly chased ( tongo) a quarter of an inch broad, of thin metal, or one of wire perhaps the tenth of an inch in section, with contiguous indentations.</t>
+  </si>
+  <si>
+    <t>An ingenious form of ornamental purse has just been invented and is very fashionable at the moment. A broad circular band of grass is plaited, and the edges turned inwards. This is worn on the upper arm, with the edges next the skin. A coin slipped into the fold formed by an edge cannot fall out. Belts made on this principle are also being made.</t>
+  </si>
+  <si>
+    <t>Women wear necklaces of beads, the only true local variety of the latter being the  areke. These are made of very short lengths of metal, brass, copper or iron, the tenth of an inch in breadth, hammered flat and bent into circles. They are strung on a thread, each bead lying in close contact with the next one, and at a distance a string of them looks like a thick wire.</t>
+  </si>
+  <si>
+    <t>Sometimes a warthog’s tusk is suspended from the necklace.</t>
+  </si>
+  <si>
+    <t>A waistcord or two of  areke sometimes supports the leaves referred to above.</t>
+  </si>
+  <si>
+    <t>Light bangles of copper, brass or iron,  benge in Zande, usually round in section and  a quarter of an inch thick, but occasionally flattened and chased in the same way as the rings, are worn on the wrists and ankles. Or these may be replaced by a strap running through a large number of rings, so many, possibly, that they fill the whole strap.</t>
+  </si>
+  <si>
+    <t>37-39b</t>
+  </si>
+  <si>
+    <t>No ear-rings are worn by either sex.</t>
+  </si>
+  <si>
+    <t>A very favourite form of ornament with the women is known as a  maka. This is a long piece of brass wire like a compressed spring, worn on the forearm. It requires an expert to coil wire properly for this. He will start at the wrist, the first few turns being made rather large, about an inch wider than the wrist, and then diminish the size until they nearly fit it. From this point he will gradually increase them according to the swell of the arm until half the distance between the wrist and the elbow has been passed, when he will increase their size rapidly for six or seven turns to the end, where the diameter of the  maka may be twice that of the arm.</t>
+  </si>
+  <si>
+    <t>Attached to a man’s waist-belt is the sheath in which he carries his dagger-like knife. It is called a  puka, and is made of leather, with a longitudinal seam running down one side, flat and pointed. A thong [39] attaches it to the belt. The point and top are usually bound round with brass wire, or with brass or iron or copper beaten into a narrow flat ribbon; or the whole  puka may be so embellished. It will be from three to six inches in length, and from one to two in width at the top, according to the knife. The knife ( sape) is firmly clasped by the sheath, and though it hangs head down seldom falls out. It is small, and spear-shaped, double-edged, with a simple design incised on the  blade. A tongue of metal is passed through the wooden handle, which has a narrow waist, like an elongated cotton-reel, and is two or three inches in length. The top is circular, the guard straight. The metal tongue of the blade comes out at the top and is turned over. The handle is often decorated with a binding of finely-twisted wire, or brass-headed nails.”</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -85,8 +486,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,7 +783,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -425,7 +827,1413 @@
         <v>11</v>
       </c>
     </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" t="s">
+        <v>79</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" t="s">
+        <v>96</v>
+      </c>
+      <c r="I20" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" t="s">
+        <v>91</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" t="s">
+        <v>90</v>
+      </c>
+      <c r="J22" t="s">
+        <v>91</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" t="s">
+        <v>109</v>
+      </c>
+      <c r="J23" t="s">
+        <v>91</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" t="s">
+        <v>117</v>
+      </c>
+      <c r="I24" t="s">
+        <v>118</v>
+      </c>
+      <c r="J24" t="s">
+        <v>118</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" t="s">
+        <v>125</v>
+      </c>
+      <c r="H25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s">
+        <v>126</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" t="s">
+        <v>78</v>
+      </c>
+      <c r="I26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" t="s">
+        <v>126</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" t="s">
+        <v>124</v>
+      </c>
+      <c r="G27" t="s">
+        <v>125</v>
+      </c>
+      <c r="H27" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" t="s">
+        <v>126</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" t="s">
+        <v>124</v>
+      </c>
+      <c r="G28" t="s">
+        <v>125</v>
+      </c>
+      <c r="H28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" t="s">
+        <v>126</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>133</v>
+      </c>
+      <c r="F29" t="s">
+        <v>124</v>
+      </c>
+      <c r="G29" t="s">
+        <v>125</v>
+      </c>
+      <c r="H29" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" t="s">
+        <v>126</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" t="s">
+        <v>124</v>
+      </c>
+      <c r="G30" t="s">
+        <v>125</v>
+      </c>
+      <c r="H30" t="s">
+        <v>51</v>
+      </c>
+      <c r="I30" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" t="s">
+        <v>126</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" t="s">
+        <v>124</v>
+      </c>
+      <c r="G31" t="s">
+        <v>125</v>
+      </c>
+      <c r="H31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" t="s">
+        <v>126</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" t="s">
+        <v>124</v>
+      </c>
+      <c r="G32" t="s">
+        <v>125</v>
+      </c>
+      <c r="H32" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" t="s">
+        <v>126</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" t="s">
+        <v>124</v>
+      </c>
+      <c r="G33" t="s">
+        <v>125</v>
+      </c>
+      <c r="H33" t="s">
+        <v>51</v>
+      </c>
+      <c r="I33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" t="s">
+        <v>126</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" t="s">
+        <v>124</v>
+      </c>
+      <c r="G34" t="s">
+        <v>125</v>
+      </c>
+      <c r="H34" t="s">
+        <v>51</v>
+      </c>
+      <c r="I34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" t="s">
+        <v>126</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" t="s">
+        <v>124</v>
+      </c>
+      <c r="G35" t="s">
+        <v>125</v>
+      </c>
+      <c r="H35" t="s">
+        <v>51</v>
+      </c>
+      <c r="I35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" t="s">
+        <v>126</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" t="s">
+        <v>141</v>
+      </c>
+      <c r="F36" t="s">
+        <v>124</v>
+      </c>
+      <c r="G36" t="s">
+        <v>125</v>
+      </c>
+      <c r="H36" t="s">
+        <v>51</v>
+      </c>
+      <c r="I36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" t="s">
+        <v>126</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" t="s">
+        <v>142</v>
+      </c>
+      <c r="F37" t="s">
+        <v>124</v>
+      </c>
+      <c r="G37" t="s">
+        <v>125</v>
+      </c>
+      <c r="H37" t="s">
+        <v>51</v>
+      </c>
+      <c r="I37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" t="s">
+        <v>126</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L37" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="K3" r:id="rId2"/>
+    <hyperlink ref="K4" r:id="rId3"/>
+    <hyperlink ref="K5" r:id="rId4"/>
+    <hyperlink ref="K6" r:id="rId5"/>
+    <hyperlink ref="K7" r:id="rId6"/>
+    <hyperlink ref="K8" r:id="rId7"/>
+    <hyperlink ref="K9" r:id="rId8"/>
+    <hyperlink ref="K10" r:id="rId9"/>
+    <hyperlink ref="K11" r:id="rId10"/>
+    <hyperlink ref="K12" r:id="rId11"/>
+    <hyperlink ref="K13" r:id="rId12"/>
+    <hyperlink ref="K14" r:id="rId13"/>
+    <hyperlink ref="K15" r:id="rId14"/>
+    <hyperlink ref="K16" r:id="rId15"/>
+    <hyperlink ref="K17" r:id="rId16"/>
+    <hyperlink ref="K18" r:id="rId17"/>
+    <hyperlink ref="K19" r:id="rId18"/>
+    <hyperlink ref="K20" r:id="rId19"/>
+    <hyperlink ref="K21" r:id="rId20"/>
+    <hyperlink ref="K22" r:id="rId21"/>
+    <hyperlink ref="K23" r:id="rId22"/>
+    <hyperlink ref="K24" r:id="rId23"/>
+    <hyperlink ref="K25" r:id="rId24"/>
+    <hyperlink ref="K26" r:id="rId25"/>
+    <hyperlink ref="K27" r:id="rId26"/>
+    <hyperlink ref="K28" r:id="rId27"/>
+    <hyperlink ref="K29" r:id="rId28"/>
+    <hyperlink ref="K30" r:id="rId29"/>
+    <hyperlink ref="K31" r:id="rId30"/>
+    <hyperlink ref="K32" r:id="rId31"/>
+    <hyperlink ref="K33" r:id="rId32"/>
+    <hyperlink ref="K34" r:id="rId33"/>
+    <hyperlink ref="K35" r:id="rId34"/>
+    <hyperlink ref="K36" r:id="rId35"/>
+    <hyperlink ref="K37" r:id="rId36"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>